--- a/Sensor data.xlsx
+++ b/Sensor data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="427">
   <si>
     <t>DataMessageGUID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>RawData</t>
   </si>
   <si>
     <t>DisplayData</t>
@@ -64,502 +64,358 @@
     <t>PlotLabels</t>
   </si>
   <si>
-    <t>Sensor Name</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>84a65f0a-a722-4540-8ed1-e7f0dfb355f0</t>
-  </si>
-  <si>
-    <t>6e28ffc5-009a-4735-bf1e-6ce9686238e0</t>
-  </si>
-  <si>
-    <t>31bfb56b-e87d-42d5-b9f4-931a9bb9bea3</t>
-  </si>
-  <si>
-    <t>3e10ff66-867c-4696-aef5-aa6b06caf0e3</t>
-  </si>
-  <si>
-    <t>633613d3-68f4-4d05-9166-616d30eb612e</t>
-  </si>
-  <si>
-    <t>03dc74ce-69c1-4402-a03b-2276f7b0171b</t>
-  </si>
-  <si>
-    <t>eb7b6e97-f10e-42d3-b71f-de73eed6b4da</t>
-  </si>
-  <si>
-    <t>bc20432d-8572-4efa-98d3-cb4dd1f826ea</t>
-  </si>
-  <si>
-    <t>4f352fe1-949f-49da-815a-7aa76be252bc</t>
-  </si>
-  <si>
-    <t>dc0ecb75-a3d8-4213-89d1-b3b5d003d86f</t>
-  </si>
-  <si>
-    <t>ad852bb4-1bf9-448d-9f9a-bb37abad99c4</t>
-  </si>
-  <si>
-    <t>7d3eb8f9-6d75-457d-852e-4e5b6f5bf1e0</t>
-  </si>
-  <si>
-    <t>114ca647-c11e-4c4b-8fa1-d7d821932de0</t>
-  </si>
-  <si>
-    <t>ac676855-5fe3-4588-8b9e-fba298553429</t>
-  </si>
-  <si>
-    <t>1afb79d7-b566-4d04-8968-431cde963264</t>
-  </si>
-  <si>
-    <t>5d9dc2d7-92b7-4dd0-8503-4d5d11960647</t>
-  </si>
-  <si>
-    <t>8aa1a4c2-67b3-4bc1-a399-f8181914fbcb</t>
-  </si>
-  <si>
-    <t>31b65f7f-4070-45dd-8695-bd62f3139323</t>
-  </si>
-  <si>
-    <t>5097c808-2f3e-40c9-8665-5400ee8938ab</t>
-  </si>
-  <si>
-    <t>49e4e0ce-b135-4e29-927d-1d5859c48b69</t>
-  </si>
-  <si>
-    <t>3a986373-e3bf-4ad5-b1a2-97c43c61c9a1</t>
-  </si>
-  <si>
-    <t>246ee973-50bb-4764-ad0e-0122f61c4143</t>
-  </si>
-  <si>
-    <t>af1baa9a-1997-4d7b-91d1-305f1bfd14a7</t>
-  </si>
-  <si>
-    <t>332f9961-d59c-45ff-94ad-6661caa35f4f</t>
-  </si>
-  <si>
-    <t>d2d5db0b-cac7-42c2-9bdd-281f13956f41</t>
-  </si>
-  <si>
-    <t>91b731ec-4215-4d0d-ae97-714837a48cf5</t>
-  </si>
-  <si>
-    <t>2e604145-ab6d-45eb-95e8-5badc2e1938e</t>
-  </si>
-  <si>
-    <t>99c49731-92b2-41a5-9775-a875797dfdc9</t>
-  </si>
-  <si>
-    <t>b878f729-818f-4cdb-8090-06e6b7e63232</t>
-  </si>
-  <si>
-    <t>facccb9c-0d05-4b1e-ac0b-63233818ea0e</t>
-  </si>
-  <si>
-    <t>193561bd-df6e-4b6c-a129-586bb3c0d2d3</t>
-  </si>
-  <si>
-    <t>aad0f013-f77d-4ea8-b56a-5474983f6fce</t>
-  </si>
-  <si>
-    <t>99080c53-09d1-493b-be97-92da73807377</t>
-  </si>
-  <si>
-    <t>8a10d9dd-489c-4e84-b50f-02c77d8b7d48</t>
-  </si>
-  <si>
-    <t>03c5949e-5101-4348-beea-7438b043d9d5</t>
-  </si>
-  <si>
-    <t>81b8ff23-9766-48c5-af66-c0dad9d9bc76</t>
-  </si>
-  <si>
-    <t>bb478542-56b0-4b22-9c8f-c862a54c2dd8</t>
-  </si>
-  <si>
-    <t>2fb00db0-859f-437e-aa74-53552c3ade7a</t>
-  </si>
-  <si>
-    <t>ccb48c57-b7cf-4296-91a2-5d590c7a3feb</t>
-  </si>
-  <si>
-    <t>49cac7f1-bad3-4aa0-9785-16969df6ec24</t>
-  </si>
-  <si>
-    <t>e83d9d3b-f50b-49c1-8c6a-74a0eb4a1a46</t>
-  </si>
-  <si>
-    <t>e21e2a8a-6cb2-4a9c-ba2c-2e0cfb4053be</t>
-  </si>
-  <si>
-    <t>a6dcdc7a-6066-4185-8c00-aaf52e949f12</t>
-  </si>
-  <si>
-    <t>e7180521-1039-462c-8cc2-7e626d5b5df7</t>
-  </si>
-  <si>
-    <t>b91b87a3-af48-4b3c-afeb-63e4590ab29f</t>
-  </si>
-  <si>
-    <t>ebe94d6b-3a5b-46b5-bd5c-5a2026a04e09</t>
-  </si>
-  <si>
-    <t>5532af39-784e-4e81-88f8-f896d865a148</t>
-  </si>
-  <si>
-    <t>754047d5-27ec-4032-9878-419115e06ba9</t>
-  </si>
-  <si>
-    <t>8e3dd598-860b-414e-b623-00142313ec26</t>
-  </si>
-  <si>
-    <t>9e31f51b-d453-4888-87d5-1a14ccaad1b1</t>
-  </si>
-  <si>
-    <t>52bc8dcd-6be7-4e31-bf22-7aa76256c2ac</t>
-  </si>
-  <si>
-    <t>029b3251-9d0a-4e10-af56-bc49dd911434</t>
-  </si>
-  <si>
-    <t>8bb1e013-3cdf-48e1-aa5c-ececcdb19dd9</t>
-  </si>
-  <si>
-    <t>3494fd35-cefd-414b-87e7-d3c51ede7160</t>
-  </si>
-  <si>
-    <t>f1e8fff3-280d-4a93-bca4-e112e926de28</t>
-  </si>
-  <si>
-    <t>76826e97-ccdc-4717-adcd-7495c184cd0e</t>
-  </si>
-  <si>
-    <t>a2ef4134-1734-4126-9c6e-d7ed834a4a1e</t>
-  </si>
-  <si>
-    <t>c4f436fc-b883-4a0f-ba35-3a46039fd980</t>
-  </si>
-  <si>
-    <t>bd710128-1635-4a9a-a838-bc08b0a403a0</t>
-  </si>
-  <si>
-    <t>663d3f00-215d-4923-9b2d-cc4f2a590e9b</t>
-  </si>
-  <si>
-    <t>7185f974-3468-496d-8203-83992dfad83e</t>
-  </si>
-  <si>
-    <t>8fde6124-526e-4482-ba3d-2efb5db305d8</t>
-  </si>
-  <si>
-    <t>1672983613000</t>
-  </si>
-  <si>
-    <t>1672981202000</t>
-  </si>
-  <si>
-    <t>1672984800000</t>
-  </si>
-  <si>
-    <t>1672981203000</t>
-  </si>
-  <si>
-    <t>1672984735000</t>
-  </si>
-  <si>
-    <t>1672982774000</t>
-  </si>
-  <si>
-    <t>1672983706000</t>
-  </si>
-  <si>
-    <t>1672983854000</t>
-  </si>
-  <si>
-    <t>1672983842000</t>
-  </si>
-  <si>
-    <t>1672983006000</t>
-  </si>
-  <si>
-    <t>1672982699000</t>
-  </si>
-  <si>
-    <t>1672982704000</t>
-  </si>
-  <si>
-    <t>1672981200000</t>
-  </si>
-  <si>
-    <t>1672984202000</t>
-  </si>
-  <si>
-    <t>1672983601000</t>
-  </si>
-  <si>
-    <t>1672983000000</t>
-  </si>
-  <si>
-    <t>1672982400000</t>
-  </si>
-  <si>
-    <t>1672981803000</t>
-  </si>
-  <si>
-    <t>1672981734000</t>
-  </si>
-  <si>
-    <t>1672981881000</t>
-  </si>
-  <si>
-    <t>1672983165000</t>
-  </si>
-  <si>
-    <t>1672982074000</t>
-  </si>
-  <si>
-    <t>1672982255000</t>
-  </si>
-  <si>
-    <t>1672981758000</t>
-  </si>
-  <si>
-    <t>1672983119000</t>
-  </si>
-  <si>
-    <t>1672982623000</t>
-  </si>
-  <si>
-    <t>1672983062000</t>
-  </si>
-  <si>
-    <t>1672983898000</t>
-  </si>
-  <si>
-    <t>1672984577000</t>
-  </si>
-  <si>
-    <t>1672982183000</t>
-  </si>
-  <si>
-    <t>1672984337000</t>
-  </si>
-  <si>
-    <t>1672983732000</t>
-  </si>
-  <si>
-    <t>1672983511000</t>
-  </si>
-  <si>
-    <t>1672981793000</t>
-  </si>
-  <si>
-    <t>1672982604000</t>
-  </si>
-  <si>
-    <t>1672981206000</t>
-  </si>
-  <si>
-    <t>1672981526000</t>
-  </si>
-  <si>
-    <t>1672982283000</t>
-  </si>
-  <si>
-    <t>1672982760000</t>
-  </si>
-  <si>
-    <t>1672981473000</t>
-  </si>
-  <si>
-    <t>1672981759000</t>
-  </si>
-  <si>
-    <t>1672983311000</t>
-  </si>
-  <si>
-    <t>1672983369000</t>
-  </si>
-  <si>
-    <t>1672983737000</t>
-  </si>
-  <si>
-    <t>1672981315000</t>
-  </si>
-  <si>
-    <t>0|51.6|57|50|2.02|2.25|3.24|0|0|0|0|0|0|0|0|0|3|3.12|2.5|100|19.3|0</t>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0|0|0|0|0|0|0|0|0|0|0|0|1.41|2.52|2.83|100|24|0</t>
-  </si>
-  <si>
-    <t>0|37.4|62.4|39|1.61|1.3|2.24|0|0|0|0|0|0|0|0|0|3.03|3.51|2.65|100|29.8|0</t>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0|0|0|0|0|0|0|0|0|0|0|0|3.09|3.61|2.45|100|34.7|0</t>
-  </si>
-  <si>
-    <t>0|0|0|0.2|0|0|0|0|0|0|0|0|0|0|0|0|1.41|1.41|3.39|100|29.8|0</t>
-  </si>
-  <si>
-    <t>11|14|9|0</t>
-  </si>
-  <si>
-    <t>88|131|39|0</t>
-  </si>
-  <si>
-    <t>23|26|16|0</t>
-  </si>
-  <si>
-    <t>23|29|18|0</t>
+    <t>SensorName</t>
+  </si>
+  <si>
+    <t>Time_stamp</t>
+  </si>
+  <si>
+    <t>6d2726cf-3ddf-4c93-b2a1-19c76dc70f3c</t>
+  </si>
+  <si>
+    <t>ba00ff7d-74ce-4be4-9156-34b4e1d0a64f</t>
+  </si>
+  <si>
+    <t>e907af47-72cf-4e4a-9662-17b1bd0975aa</t>
+  </si>
+  <si>
+    <t>93ce3294-c8c5-43c3-8782-ec1ebc81f40b</t>
+  </si>
+  <si>
+    <t>791e5219-4599-42c4-9f3a-ce87a1ec78f0</t>
+  </si>
+  <si>
+    <t>a89156e6-ba89-4745-a266-d8d0f7d3436e</t>
+  </si>
+  <si>
+    <t>31df4525-1f8a-43db-8e2b-1dcaa899d632</t>
+  </si>
+  <si>
+    <t>5c3fd875-6eff-4867-9572-9f29bf036f4b</t>
+  </si>
+  <si>
+    <t>445f6546-88f6-425a-b196-840d95559039</t>
+  </si>
+  <si>
+    <t>df139e85-e107-42cf-a082-a699d19bc1ac</t>
+  </si>
+  <si>
+    <t>065c8ab0-fe8e-4041-8bb1-6040edf3112c</t>
+  </si>
+  <si>
+    <t>b844449c-00c0-4d6a-83e4-b60353755b4d</t>
+  </si>
+  <si>
+    <t>e5088e4c-a71f-4641-9d4f-ceb7f2aa1c4c</t>
+  </si>
+  <si>
+    <t>7c657de7-96ff-4235-b979-e92f9411379c</t>
+  </si>
+  <si>
+    <t>214ba9d6-4972-4440-b309-17b63cdd0a60</t>
+  </si>
+  <si>
+    <t>bca34c2d-42fd-4aa2-8664-d8a416eb32ff</t>
+  </si>
+  <si>
+    <t>8ac7f07b-e7de-479f-bd15-85bc40b12c17</t>
+  </si>
+  <si>
+    <t>e5b32b90-542c-4c64-9221-064b9c14d6d9</t>
+  </si>
+  <si>
+    <t>65c277a2-098c-4b2b-a631-1fae95a95b50</t>
+  </si>
+  <si>
+    <t>108f1289-c119-4b31-a664-8f9ece696ef3</t>
+  </si>
+  <si>
+    <t>a6261229-bbeb-4b70-a942-791fdd08d13e</t>
+  </si>
+  <si>
+    <t>faca7b7b-3c9f-47b2-9324-d970a1568e94</t>
+  </si>
+  <si>
+    <t>39ebe356-484c-44a9-a822-b58e1f4dc310</t>
+  </si>
+  <si>
+    <t>b3190eea-6d61-4224-9e2a-8c73d5819cb3</t>
+  </si>
+  <si>
+    <t>524d486b-ab0c-4120-ab4b-7abd28291f66</t>
+  </si>
+  <si>
+    <t>0c729fd9-a5fd-4ee5-b437-6d1155df21ed</t>
+  </si>
+  <si>
+    <t>1da1a5b8-aa08-4b68-a40f-7fd0923f2006</t>
+  </si>
+  <si>
+    <t>5d61a1b6-e085-4a66-9214-e694d6d214c3</t>
+  </si>
+  <si>
+    <t>92147e4f-812d-40ee-8573-18f44c516105</t>
+  </si>
+  <si>
+    <t>43ef4674-11ea-46e0-8b64-2afc269c12b6</t>
+  </si>
+  <si>
+    <t>d0127fe1-9c6f-4444-aec9-f285184b0a30</t>
+  </si>
+  <si>
+    <t>b9d9eaec-6816-40f1-a918-431de6a05346</t>
+  </si>
+  <si>
+    <t>2845bfde-fba9-4a75-adef-eb46b0724834</t>
+  </si>
+  <si>
+    <t>9802a89c-0155-4b49-bd96-6b1d2f55298c</t>
+  </si>
+  <si>
+    <t>44c8d53d-8376-4057-8de1-0a3e604fb2bd</t>
+  </si>
+  <si>
+    <t>c91453f9-e260-439c-965a-799b44aaa163</t>
+  </si>
+  <si>
+    <t>720ade86-d13d-4e31-ba8e-0fd17987b50f</t>
+  </si>
+  <si>
+    <t>3531cfe9-1edb-4003-a770-6d1d62f7adba</t>
+  </si>
+  <si>
+    <t>e8c7ef4e-587e-46ef-9706-d3d998717799</t>
+  </si>
+  <si>
+    <t>94356599-729a-401d-908c-9b1788db6c2c</t>
+  </si>
+  <si>
+    <t>f489f829-a4f2-48e6-8fed-994a95b705d2</t>
+  </si>
+  <si>
+    <t>4fe61895-af8d-4e15-a9dd-9b58823731ff</t>
+  </si>
+  <si>
+    <t>8387aa8e-e35e-48f1-a94b-0952cea771b0</t>
+  </si>
+  <si>
+    <t>73cea374-2a5a-4da6-9338-d3254223de3a</t>
+  </si>
+  <si>
+    <t>91b9062f-f341-4fe5-99d9-6fbfa2ef028c</t>
+  </si>
+  <si>
+    <t>e898417c-376e-49c9-875b-22cc8444e034</t>
+  </si>
+  <si>
+    <t>676f365b-1467-4dcd-84fd-b3cb11220ca0</t>
+  </si>
+  <si>
+    <t>ce4876f9-c5ec-4105-a233-bc5374b78e42</t>
+  </si>
+  <si>
+    <t>9db939b9-5b24-43ad-96d7-dbb790119370</t>
+  </si>
+  <si>
+    <t>49a1e86e-4457-4334-9895-39b3821ef0a7</t>
+  </si>
+  <si>
+    <t>ed556398-88af-4e3a-96c1-86591c2a58e7</t>
+  </si>
+  <si>
+    <t>32247936-da2b-48fe-9eef-42551b9e1979</t>
+  </si>
+  <si>
+    <t>cd5c1df8-36d8-4eb5-8ce4-03b85ccbb7c1</t>
+  </si>
+  <si>
+    <t>21f728d2-d585-4f70-b10b-bfc6464d760f</t>
+  </si>
+  <si>
+    <t>94bf6370-67f0-460b-94de-e8f84d65535a</t>
+  </si>
+  <si>
+    <t>f6313328-9fb8-4b26-9b35-cb1d98d88211</t>
+  </si>
+  <si>
+    <t>52d1eea2-4dc7-4437-af95-d627d2cef1cb</t>
+  </si>
+  <si>
+    <t>4ae3c20c-bb6e-446c-a5f4-079507aaae68</t>
+  </si>
+  <si>
+    <t>08e1fd02-bc1d-49d6-a76b-bd954163d744</t>
+  </si>
+  <si>
+    <t>3df6833e-253f-426b-8f4f-d98219cdfb2b</t>
+  </si>
+  <si>
+    <t>0|38.6|56|37.8|2.25|2.42|4.23|0|0|0|0|0|0|0|0|0|3.47|2.35|2.89|100|24.1|0</t>
+  </si>
+  <si>
+    <t>0|34|43.6|42.4|7.64|13.61|10.61|0|0|0|0|0|0|0|0|0|2.18|2.51|1.84|100|28.5|0</t>
+  </si>
+  <si>
+    <t>0|32.8|43.2|42.6|5.32|15.02|11.94|0|0|0|0|0|0|0|0|0|2.37|2.62|2.05|100|29.3|0</t>
+  </si>
+  <si>
+    <t>0|43.2|29.4|42.8|1.14|1.57|1.77|0|0|0|0|0|0|0|0|0|3.19|2.82|3.06|100|30.9|0</t>
+  </si>
+  <si>
+    <t>0|50.8|50.8|50.6|6.03|19.69|12.03|0|0|0|0|0|0|0|0|0|2.9|2.4|2.23|100|37.3|0</t>
+  </si>
+  <si>
+    <t>10|12|9|0</t>
+  </si>
+  <si>
+    <t>18|18|13|0</t>
+  </si>
+  <si>
+    <t>17|20|11|0</t>
+  </si>
+  <si>
+    <t>20|26|14|0</t>
+  </si>
+  <si>
+    <t>19|19|15|0</t>
   </si>
   <si>
     <t>20|20|14|0</t>
   </si>
   <si>
-    <t>24|27|16|0</t>
-  </si>
-  <si>
-    <t>4.1|23.5|0</t>
-  </si>
-  <si>
-    <t>5.9|21.8|0</t>
-  </si>
-  <si>
-    <t>0|0|23.1|3888|0</t>
-  </si>
-  <si>
-    <t>0|0|23.2|3880|0</t>
-  </si>
-  <si>
-    <t>535|815|0|554</t>
-  </si>
-  <si>
-    <t>551|824|0|578</t>
-  </si>
-  <si>
-    <t>542|832|0|587</t>
-  </si>
-  <si>
-    <t>533|839|0|559</t>
-  </si>
-  <si>
-    <t>541|848|0|570</t>
-  </si>
-  <si>
-    <t>549|856|0|574</t>
-  </si>
-  <si>
-    <t>541|865|0|586</t>
-  </si>
-  <si>
-    <t>768|943|0|581</t>
-  </si>
-  <si>
-    <t>0|0|0|425</t>
-  </si>
-  <si>
-    <t>558|535|0|335</t>
-  </si>
-  <si>
-    <t>192|214|0|320</t>
-  </si>
-  <si>
-    <t>225|213|0|345</t>
-  </si>
-  <si>
-    <t>454|464|0|347</t>
-  </si>
-  <si>
-    <t>489|461|0|374</t>
-  </si>
-  <si>
-    <t>573|904|0|520</t>
-  </si>
-  <si>
-    <t>389|374|0|431</t>
-  </si>
-  <si>
-    <t>469|452|0|403</t>
-  </si>
-  <si>
-    <t>0|22.9</t>
-  </si>
-  <si>
-    <t>64.7|23.2</t>
-  </si>
-  <si>
-    <t>-0.8|22.7</t>
-  </si>
-  <si>
-    <t>355|22.8</t>
-  </si>
-  <si>
-    <t>-5.4|23.1</t>
-  </si>
-  <si>
-    <t>-1.7|23</t>
-  </si>
-  <si>
-    <t>0.2|22.9</t>
-  </si>
-  <si>
-    <t>-1|22.8</t>
-  </si>
-  <si>
-    <t>1.2|22.7</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>57.68,23.36,14.5,73.3,23.3,17.7</t>
-  </si>
-  <si>
-    <t>60.63,21.26,13.3,67.6,21,16.2</t>
-  </si>
-  <si>
-    <t>53.3,24.63,14.5,73.3,24.5,18.2</t>
-  </si>
-  <si>
-    <t>51.87,26.23,15.6,78.7,26.3,19.4</t>
-  </si>
-  <si>
-    <t>66.05,22.1,15.5,77.6,22.1,17.7</t>
-  </si>
-  <si>
-    <t>55.71,23,13.7,69.2,22.8,17.1</t>
-  </si>
-  <si>
-    <t>81.1|True|0</t>
-  </si>
-  <si>
-    <t>73.62|True|0</t>
-  </si>
-  <si>
-    <t>51.64|True|0</t>
-  </si>
-  <si>
-    <t>72.76|True|0</t>
-  </si>
-  <si>
-    <t>68.68|True|0</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>4.1|23|0</t>
+  </si>
+  <si>
+    <t>6.4|20.9|0</t>
+  </si>
+  <si>
+    <t>1.9|0|22.8|3901|0</t>
+  </si>
+  <si>
+    <t>0|0|22.9|3881|0</t>
+  </si>
+  <si>
+    <t>668|698|0|681</t>
+  </si>
+  <si>
+    <t>674|704|0|712</t>
+  </si>
+  <si>
+    <t>654|708|0|692</t>
+  </si>
+  <si>
+    <t>620|715|0|672</t>
+  </si>
+  <si>
+    <t>612|720|0|625</t>
+  </si>
+  <si>
+    <t>634|727|0|657</t>
+  </si>
+  <si>
+    <t>998|891|0|832</t>
+  </si>
+  <si>
+    <t>0|1|0|413</t>
+  </si>
+  <si>
+    <t>541|542|0|318</t>
+  </si>
+  <si>
+    <t>196|204|0|336</t>
+  </si>
+  <si>
+    <t>473|470|0|357</t>
+  </si>
+  <si>
+    <t>704|770|0|682</t>
+  </si>
+  <si>
+    <t>379|367|0|422</t>
+  </si>
+  <si>
+    <t>449|452|0|379</t>
+  </si>
+  <si>
+    <t>0|22.7</t>
+  </si>
+  <si>
+    <t>60|24.1</t>
+  </si>
+  <si>
+    <t>55.2|23</t>
+  </si>
+  <si>
+    <t>348.2|23.5</t>
+  </si>
+  <si>
+    <t>292.7|24</t>
+  </si>
+  <si>
+    <t>309.2|23.8</t>
+  </si>
+  <si>
+    <t>51.7|24.3</t>
+  </si>
+  <si>
+    <t>36.9|24</t>
+  </si>
+  <si>
+    <t>152.5|23.4</t>
+  </si>
+  <si>
+    <t>183.1|23.9</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>64.3,20.21,13.3,67.1,20,15.8</t>
+  </si>
+  <si>
+    <t>61.82,21.19,13.6,68.6,21,16.3</t>
+  </si>
+  <si>
+    <t>55.41,23.1,13.7,69.3,22.9,17.2</t>
+  </si>
+  <si>
+    <t>69.38,20.38,14.6,73.1,20.3,16.6</t>
+  </si>
+  <si>
+    <t>65.48,21.29,14.6,73.1,21.2,16.9</t>
+  </si>
+  <si>
+    <t>61.85,21.6,14,70.4,21.4,16.7</t>
+  </si>
+  <si>
+    <t>82.32|True|0</t>
+  </si>
+  <si>
+    <t>74.32|True|0</t>
+  </si>
+  <si>
+    <t>51.9|True|0</t>
+  </si>
+  <si>
+    <t>72.74|True|0</t>
+  </si>
+  <si>
+    <t>70.4|True|0</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>18.8</t>
   </si>
   <si>
     <t>22.7</t>
@@ -568,181 +424,178 @@
     <t>-999.8</t>
   </si>
   <si>
-    <t>24.8</t>
-  </si>
-  <si>
-    <t>21.6</t>
-  </si>
-  <si>
-    <t>Frequency X: 51.6 Hz Y: 57 Hz Z: 50 Hz , Velocity rms X: 2.02 mm/s Y: 2.25 mm/s Z: 3.24 mm/s , Crest Factor  X: 3 Y: 3.12 Z: 2.5 , Duty Cycle:100 % , Temperature 66.7° F</t>
-  </si>
-  <si>
-    <t>Frequency X: 0 Hz Y: 0.2 Hz Z: 0.2 Hz , Velocity rms X: 0 mm/s Y: 0 mm/s Z: 0 mm/s , Crest Factor  X: 1.41 Y: 2.52 Z: 2.83 , Duty Cycle:100 % , Temperature 24° C</t>
-  </si>
-  <si>
-    <t>Frequency X: 37.4 Hz Y: 62.4 Hz Z: 39 Hz , Velocity rms X: 1.61 mm/s Y: 1.3 mm/s Z: 2.24 mm/s , Crest Factor  X: 3.03 Y: 3.51 Z: 2.65 , Duty Cycle:100 % , Temperature 29.8° C</t>
-  </si>
-  <si>
-    <t>Frequency X: 0 Hz Y: 0.2 Hz Z: 0.2 Hz , Velocity rms X: 0 mm/s Y: 0 mm/s Z: 0 mm/s , Crest Factor  X: 3.09 Y: 3.61 Z: 2.45 , Duty Cycle:100 % , Temperature 34.7° C</t>
-  </si>
-  <si>
-    <t>Frequency X: 0 Hz Y: 0 Hz Z: 0.2 Hz , Velocity rms X: 0 mm/s Y: 0 mm/s Z: 0 mm/s , Crest Factor  X: 1.41 Y: 1.41 Z: 3.39 , Duty Cycle:100 % , Temperature 29.8° C</t>
-  </si>
-  <si>
-    <t>PM1: 9 μg/m^3 , PM2.5: 11 μg/m^3 , PM10: 14 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 39 μg/m^3 , PM2.5: 88 μg/m^3 , PM10: 131 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 16 μg/m^3 , PM2.5: 23 μg/m^3 , PM10: 26 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 18 μg/m^3 , PM2.5: 23 μg/m^3 , PM10: 29 μg/m^3</t>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>Frequency X: 38.6 Hz Y: 56 Hz Z: 37.8 Hz , Velocity rms X: 2.25 mm/s Y: 2.42 mm/s Z: 4.23 mm/s , Crest Factor  X: 3.47 Y: 2.35 Z: 2.89 , Duty Cycle:100 % , Temperature 75.4° F</t>
+  </si>
+  <si>
+    <t>Frequency X: 34 Hz Y: 43.6 Hz Z: 42.4 Hz , Velocity rms X: 7.64 mm/s Y: 13.61 mm/s Z: 10.61 mm/s , Crest Factor  X: 2.18 Y: 2.51 Z: 1.84 , Duty Cycle:100 % , Temperature 28.5° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 32.8 Hz Y: 43.2 Hz Z: 42.6 Hz , Velocity rms X: 5.32 mm/s Y: 15.02 mm/s Z: 11.94 mm/s , Crest Factor  X: 2.37 Y: 2.62 Z: 2.05 , Duty Cycle:100 % , Temperature 29.3° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 43.2 Hz Y: 29.4 Hz Z: 42.8 Hz , Velocity rms X: 1.14 mm/s Y: 1.57 mm/s Z: 1.77 mm/s , Crest Factor  X: 3.19 Y: 2.82 Z: 3.06 , Duty Cycle:100 % , Temperature 30.9° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 50.8 Hz Y: 50.8 Hz Z: 50.6 Hz , Velocity rms X: 6.03 mm/s Y: 19.69 mm/s Z: 12.03 mm/s , Crest Factor  X: 2.9 Y: 2.4 Z: 2.23 , Duty Cycle:100 % , Temperature 37.3° C</t>
+  </si>
+  <si>
+    <t>PM1: 9 μg/m^3 , PM2.5: 10 μg/m^3 , PM10: 12 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 13 μg/m^3 , PM2.5: 18 μg/m^3 , PM10: 18 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 11 μg/m^3 , PM2.5: 17 μg/m^3 , PM10: 20 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 14 μg/m^3 , PM2.5: 20 μg/m^3 , PM10: 26 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 15 μg/m^3 , PM2.5: 19 μg/m^3 , PM10: 19 μg/m^3</t>
   </si>
   <si>
     <t>PM1: 14 μg/m^3 , PM2.5: 20 μg/m^3 , PM10: 20 μg/m^3</t>
   </si>
   <si>
-    <t>PM1: 16 μg/m^3 , PM2.5: 24 μg/m^3 , PM10: 27 μg/m^3</t>
-  </si>
-  <si>
-    <t>4.1 mps, Temperature: 74.3 F</t>
-  </si>
-  <si>
-    <t>5.9 mps, Temperature: 21.8 C</t>
-  </si>
-  <si>
-    <t>0 PPM, 0 TWA-PPM, 23.1° C</t>
-  </si>
-  <si>
-    <t>0 PPM, 0 TWA-PPM, 23.2° C</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 535 ppm; CO2 TWA: 815 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 551 ppm; CO2 TWA: 824 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 542 ppm; CO2 TWA: 832 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 533 ppm; CO2 TWA: 839 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 541 ppm; CO2 TWA: 848 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 549 ppm; CO2 TWA: 856 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 541 ppm; CO2 TWA: 865 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 768 ppm; CO2 TWA: 943 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 0 ppm; CO2 TWA: 0 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 558 ppm; CO2 TWA: 535 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 192 ppm; CO2 TWA: 214 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 225 ppm; CO2 TWA: 213 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 454 ppm; CO2 TWA: 464 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 489 ppm; CO2 TWA: 461 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 573 ppm; CO2 TWA: 904 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 389 ppm; CO2 TWA: 374 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 469 ppm; CO2 TWA: 452 ppm</t>
-  </si>
-  <si>
-    <t>0 Pascal, Temperature: 73.22 F</t>
-  </si>
-  <si>
-    <t>64.7 Pascal, Temperature: 73.76 F</t>
-  </si>
-  <si>
-    <t>-0.8 Pascal, Temperature: 72.86 F</t>
-  </si>
-  <si>
-    <t>355 Pascal, Temperature: 73.04 F</t>
-  </si>
-  <si>
-    <t>-5.4 Pascal, Temperature: 23.1 C</t>
-  </si>
-  <si>
-    <t>-1.7 Pascal, Temperature: 23 C</t>
-  </si>
-  <si>
-    <t>0.2 Pascal, Temperature: 22.9 C</t>
-  </si>
-  <si>
-    <t>-1 Pascal, Temperature: 22.8 C</t>
-  </si>
-  <si>
-    <t>1.2 Pascal, Temperature: 22.7 C</t>
-  </si>
-  <si>
-    <t>23.1° C</t>
-  </si>
-  <si>
-    <t>11.6° C</t>
-  </si>
-  <si>
-    <t>57.68% @ 23.4° C D: 14.5° C G/KG: 10.5 Heat Index: 23.3 °C Wet Bulb: 17.7° C</t>
-  </si>
-  <si>
-    <t>60.63% @ 21.3° C</t>
-  </si>
-  <si>
-    <t>53.3% @ 24.6° C</t>
-  </si>
-  <si>
-    <t>51.87% @ 26.2° C</t>
-  </si>
-  <si>
-    <t>66.05% @ 22.1° C</t>
-  </si>
-  <si>
-    <t>55.71% @ 23° C</t>
-  </si>
-  <si>
-    <t>81.1 lux</t>
-  </si>
-  <si>
-    <t>73.62 lux</t>
-  </si>
-  <si>
-    <t>51.64 lux</t>
-  </si>
-  <si>
-    <t>72.76 lux</t>
-  </si>
-  <si>
-    <t>68.68 lux</t>
-  </si>
-  <si>
-    <t>25° C</t>
-  </si>
-  <si>
-    <t>21.9° C</t>
-  </si>
-  <si>
-    <t>21° C</t>
+    <t>4.1 mps, Temperature: 73.4 F</t>
+  </si>
+  <si>
+    <t>6.4 mps, Temperature: 20.9 C</t>
+  </si>
+  <si>
+    <t>2 PPM, 0 TWA-PPM, 22.8° C</t>
+  </si>
+  <si>
+    <t>0 PPM, 0 TWA-PPM, 22.9° C</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 668 ppm; CO2 TWA: 698 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 674 ppm; CO2 TWA: 704 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 654 ppm; CO2 TWA: 708 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 620 ppm; CO2 TWA: 715 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 612 ppm; CO2 TWA: 720 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 634 ppm; CO2 TWA: 727 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 998 ppm; CO2 TWA: 891 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 0 ppm; CO2 TWA: 1 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 541 ppm; CO2 TWA: 542 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 196 ppm; CO2 TWA: 204 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 473 ppm; CO2 TWA: 470 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 704 ppm; CO2 TWA: 770 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 379 ppm; CO2 TWA: 367 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 449 ppm; CO2 TWA: 452 ppm</t>
+  </si>
+  <si>
+    <t>0 Pascal, Temperature: 72.86 F</t>
+  </si>
+  <si>
+    <t>60 Pascal, Temperature: 75.38 F</t>
+  </si>
+  <si>
+    <t>55.2 Pascal, Temperature: 73.4 F</t>
+  </si>
+  <si>
+    <t>348.2 Pascal, Temperature: 74.3 F</t>
+  </si>
+  <si>
+    <t>292.7 Pascal, Temperature: 24 C</t>
+  </si>
+  <si>
+    <t>309.2 Pascal, Temperature: 23.8 C</t>
+  </si>
+  <si>
+    <t>51.7 Pascal, Temperature: 24.3 C</t>
+  </si>
+  <si>
+    <t>36.9 Pascal, Temperature: 24 C</t>
+  </si>
+  <si>
+    <t>152.5 Pascal, Temperature: 23.4 C</t>
+  </si>
+  <si>
+    <t>183.1 Pascal, Temperature: 23.9 C</t>
+  </si>
+  <si>
+    <t>15.3° C</t>
+  </si>
+  <si>
+    <t>19.1° C</t>
+  </si>
+  <si>
+    <t>64.3% @ 20.2° C D: 13.3° C G/KG: 9.6 Heat Index: 20 °C Wet Bulb: 15.8° C</t>
+  </si>
+  <si>
+    <t>61.82% @ 21.2° C</t>
+  </si>
+  <si>
+    <t>55.41% @ 23.1° C</t>
+  </si>
+  <si>
+    <t>69.38% @ 20.4° C</t>
+  </si>
+  <si>
+    <t>65.48% @ 21.3° C</t>
+  </si>
+  <si>
+    <t>61.85% @ 21.6° C</t>
+  </si>
+  <si>
+    <t>82.32 lux</t>
+  </si>
+  <si>
+    <t>74.32 lux</t>
+  </si>
+  <si>
+    <t>51.9 lux</t>
+  </si>
+  <si>
+    <t>72.74 lux</t>
+  </si>
+  <si>
+    <t>70.4 lux</t>
+  </si>
+  <si>
+    <t>21.8° C</t>
+  </si>
+  <si>
+    <t>18.9° C</t>
+  </si>
+  <si>
+    <t>20.8° C</t>
+  </si>
+  <si>
+    <t>18.8° C</t>
   </si>
   <si>
     <t>22.7° C</t>
@@ -751,271 +604,271 @@
     <t>Hardware Failure (Short)</t>
   </si>
   <si>
-    <t>24.8° C</t>
-  </si>
-  <si>
-    <t>21.6° C</t>
-  </si>
-  <si>
-    <t>3096</t>
+    <t>23.7° C</t>
+  </si>
+  <si>
+    <t>22.1° C</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>3048</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2244</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>533</t>
+    <t>668</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>998</t>
   </si>
   <si>
     <t>541</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>-5.4</t>
-  </si>
-  <si>
-    <t>-1.7</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>57.68</t>
-  </si>
-  <si>
-    <t>60.63</t>
-  </si>
-  <si>
-    <t>53.3</t>
-  </si>
-  <si>
-    <t>51.87</t>
-  </si>
-  <si>
-    <t>66.05</t>
-  </si>
-  <si>
-    <t>55.71</t>
-  </si>
-  <si>
-    <t>81.1</t>
-  </si>
-  <si>
-    <t>73.62</t>
-  </si>
-  <si>
-    <t>51.64</t>
-  </si>
-  <si>
-    <t>72.76</t>
-  </si>
-  <si>
-    <t>68.68</t>
-  </si>
-  <si>
-    <t>0|51.6|57|50|2.02|2.25|3.24|0|0|0|0|0|0|0|0|0|3|3.12|2.5|1|19.3</t>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0|0|0|0|0|0|0|0|0|0|0|0|1.41|2.52|2.83|1|24</t>
-  </si>
-  <si>
-    <t>0|37.4|62.4|39|1.61|1.3|2.24|0|0|0|0|0|0|0|0|0|3.03|3.51|2.65|1|29.8</t>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0|0|0|0|0|0|0|0|0|0|0|0|3.09|3.61|2.45|1|34.7</t>
-  </si>
-  <si>
-    <t>0|0|0|0.2|0|0|0|0|0|0|0|0|0|0|0|0|1.41|1.41|3.39|1|29.8</t>
-  </si>
-  <si>
-    <t>9|11|14</t>
-  </si>
-  <si>
-    <t>39|88|131</t>
-  </si>
-  <si>
-    <t>16|23|26</t>
-  </si>
-  <si>
-    <t>18|23|29</t>
+    <t>196</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>55.2</t>
+  </si>
+  <si>
+    <t>348.2</t>
+  </si>
+  <si>
+    <t>292.7</t>
+  </si>
+  <si>
+    <t>309.2</t>
+  </si>
+  <si>
+    <t>51.7</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>152.5</t>
+  </si>
+  <si>
+    <t>183.1</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>61.82</t>
+  </si>
+  <si>
+    <t>55.41</t>
+  </si>
+  <si>
+    <t>69.38</t>
+  </si>
+  <si>
+    <t>65.48</t>
+  </si>
+  <si>
+    <t>61.85</t>
+  </si>
+  <si>
+    <t>82.32</t>
+  </si>
+  <si>
+    <t>74.32</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>72.74</t>
+  </si>
+  <si>
+    <t>70.4</t>
+  </si>
+  <si>
+    <t>0|38.6|56|37.8|2.25|2.42|4.23|0|0|0|0|0|0|0|0|0|3.47|2.35|2.89|1|24.1</t>
+  </si>
+  <si>
+    <t>0|34|43.6|42.4|7.64|13.61|10.61|0|0|0|0|0|0|0|0|0|2.18|2.51|1.84|1|28.5</t>
+  </si>
+  <si>
+    <t>0|32.8|43.2|42.6|5.32|15.02|11.94|0|0|0|0|0|0|0|0|0|2.37|2.62|2.05|1|29.3</t>
+  </si>
+  <si>
+    <t>0|43.2|29.4|42.8|1.14|1.57|1.77|0|0|0|0|0|0|0|0|0|3.19|2.82|3.06|1|30.9</t>
+  </si>
+  <si>
+    <t>0|50.8|50.8|50.6|6.03|19.69|12.03|0|0|0|0|0|0|0|0|0|2.9|2.4|2.23|1|37.3</t>
+  </si>
+  <si>
+    <t>9|10|12</t>
+  </si>
+  <si>
+    <t>13|18|18</t>
+  </si>
+  <si>
+    <t>11|17|20</t>
+  </si>
+  <si>
+    <t>14|20|26</t>
+  </si>
+  <si>
+    <t>15|19|19</t>
   </si>
   <si>
     <t>14|20|20</t>
   </si>
   <si>
-    <t>16|24|27</t>
-  </si>
-  <si>
-    <t>4.1|23.5</t>
-  </si>
-  <si>
-    <t>5.9|21.8</t>
-  </si>
-  <si>
-    <t>0|0|23.1</t>
-  </si>
-  <si>
-    <t>0|0|23.2</t>
-  </si>
-  <si>
-    <t>535|815</t>
-  </si>
-  <si>
-    <t>551|824</t>
-  </si>
-  <si>
-    <t>542|832</t>
-  </si>
-  <si>
-    <t>533|839</t>
-  </si>
-  <si>
-    <t>541|848</t>
-  </si>
-  <si>
-    <t>549|856</t>
-  </si>
-  <si>
-    <t>541|865</t>
-  </si>
-  <si>
-    <t>768|943</t>
-  </si>
-  <si>
-    <t>0|0</t>
-  </si>
-  <si>
-    <t>558|535</t>
-  </si>
-  <si>
-    <t>192|214</t>
-  </si>
-  <si>
-    <t>225|213</t>
-  </si>
-  <si>
-    <t>454|464</t>
-  </si>
-  <si>
-    <t>489|461</t>
-  </si>
-  <si>
-    <t>573|904</t>
-  </si>
-  <si>
-    <t>389|374</t>
-  </si>
-  <si>
-    <t>469|452</t>
-  </si>
-  <si>
-    <t>57.68|23.36|14.5|73.3|23.3|17.7</t>
-  </si>
-  <si>
-    <t>60.63|21.26|13.3|67.6|21|16.2</t>
-  </si>
-  <si>
-    <t>53.3|24.63|14.5|73.3|24.5|18.2</t>
-  </si>
-  <si>
-    <t>51.87|26.23|15.6|78.7|26.3|19.4</t>
-  </si>
-  <si>
-    <t>66.05|22.1|15.5|77.6|22.1|17.7</t>
-  </si>
-  <si>
-    <t>55.71|23|13.7|69.2|22.8|17.1</t>
-  </si>
-  <si>
-    <t>81.1|True</t>
-  </si>
-  <si>
-    <t>73.62|True</t>
-  </si>
-  <si>
-    <t>51.64|True</t>
-  </si>
-  <si>
-    <t>72.76|True</t>
-  </si>
-  <si>
-    <t>68.68|True</t>
+    <t>4.1|23</t>
+  </si>
+  <si>
+    <t>6.4|20.9</t>
+  </si>
+  <si>
+    <t>2|0|22.8</t>
+  </si>
+  <si>
+    <t>0|0|22.9</t>
+  </si>
+  <si>
+    <t>668|698</t>
+  </si>
+  <si>
+    <t>674|704</t>
+  </si>
+  <si>
+    <t>654|708</t>
+  </si>
+  <si>
+    <t>620|715</t>
+  </si>
+  <si>
+    <t>612|720</t>
+  </si>
+  <si>
+    <t>634|727</t>
+  </si>
+  <si>
+    <t>998|891</t>
+  </si>
+  <si>
+    <t>0|1</t>
+  </si>
+  <si>
+    <t>541|542</t>
+  </si>
+  <si>
+    <t>196|204</t>
+  </si>
+  <si>
+    <t>473|470</t>
+  </si>
+  <si>
+    <t>704|770</t>
+  </si>
+  <si>
+    <t>379|367</t>
+  </si>
+  <si>
+    <t>449|452</t>
+  </si>
+  <si>
+    <t>64.3|20.21|13.3|67.1|20|15.8</t>
+  </si>
+  <si>
+    <t>61.82|21.19|13.6|68.6|21|16.3</t>
+  </si>
+  <si>
+    <t>55.41|23.1|13.7|69.3|22.9|17.2</t>
+  </si>
+  <si>
+    <t>69.38|20.38|14.6|73.1|20.3|16.6</t>
+  </si>
+  <si>
+    <t>65.48|21.29|14.6|73.1|21.2|16.9</t>
+  </si>
+  <si>
+    <t>61.85|21.6|14|70.4|21.4|16.7</t>
+  </si>
+  <si>
+    <t>82.32|True</t>
+  </si>
+  <si>
+    <t>74.32|True</t>
+  </si>
+  <si>
+    <t>51.9|True</t>
+  </si>
+  <si>
+    <t>72.74|True</t>
+  </si>
+  <si>
+    <t>70.4|True</t>
   </si>
   <si>
     <t>State|Frequency|Frequency|Frequency|Speed|Speed|Speed|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Percentage|Percentage|Percentage|Percentage|TemperatureData</t>
@@ -1045,73 +898,76 @@
     <t>LuxData|LightDetect</t>
   </si>
   <si>
-    <t>0|51.6|57|50|2.02|2.25|3.24||||||||||3|3.12|2.5|100|66.74</t>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0|0|0||||||||||1.41|2.52|2.83|100|24</t>
-  </si>
-  <si>
-    <t>0|37.4|62.4|39|1.61|1.3|2.24||||||||||3.03|3.51|2.65|100|29.8</t>
-  </si>
-  <si>
-    <t>0|0|0.2|0.2|0|0|0||||||||||3.09|3.61|2.45|100|34.7</t>
-  </si>
-  <si>
-    <t>0|0|0|0.2|0|0|0||||||||||1.41|1.41|3.39|100|29.8</t>
-  </si>
-  <si>
-    <t>11|9|11|14</t>
-  </si>
-  <si>
-    <t>88|39|88|131</t>
-  </si>
-  <si>
-    <t>23|16|23|26</t>
-  </si>
-  <si>
-    <t>23|18|23|29</t>
+    <t>0|38.6|56|37.8|2.25|2.42|4.23||||||||||3.47|2.35|2.89|100|75.38</t>
+  </si>
+  <si>
+    <t>0|34|43.6|42.4|7.64|13.61|10.61||||||||||2.18|2.51|1.84|100|28.5</t>
+  </si>
+  <si>
+    <t>0|32.8|43.2|42.6|5.32|15.02|11.94||||||||||2.37|2.62|2.05|100|29.3</t>
+  </si>
+  <si>
+    <t>0|43.2|29.4|42.8|1.14|1.57|1.77||||||||||3.19|2.82|3.06|100|30.9</t>
+  </si>
+  <si>
+    <t>0|50.8|50.8|50.6|6.03|19.69|12.03||||||||||2.9|2.4|2.23|100|37.3</t>
+  </si>
+  <si>
+    <t>10|9|10|12</t>
+  </si>
+  <si>
+    <t>18|13|18|18</t>
+  </si>
+  <si>
+    <t>17|11|17|20</t>
+  </si>
+  <si>
+    <t>20|14|20|26</t>
+  </si>
+  <si>
+    <t>19|15|19|19</t>
   </si>
   <si>
     <t>20|14|20|20</t>
   </si>
   <si>
-    <t>24|16|24|27</t>
-  </si>
-  <si>
-    <t>4.1|74.3</t>
-  </si>
-  <si>
-    <t>57.68|23.36|14.5|10.4714285714286|23.3|17.7</t>
-  </si>
-  <si>
-    <t>60.63|21.26|13.3|9.65714285714286|21|16.2</t>
-  </si>
-  <si>
-    <t>53.3|24.63|14.5|10.4714285714286|24.5|18.2</t>
-  </si>
-  <si>
-    <t>51.87|26.23|15.6|11.2428571428571|26.3|19.4</t>
-  </si>
-  <si>
-    <t>66.05|22.1|15.5|11.0857142857143|22.1|17.7</t>
-  </si>
-  <si>
-    <t>55.71|23|13.7|9.88571428571429|22.8|17.1</t>
-  </si>
-  <si>
-    <t>81.1|1</t>
-  </si>
-  <si>
-    <t>73.62|1</t>
-  </si>
-  <si>
-    <t>51.64|1</t>
-  </si>
-  <si>
-    <t>72.76|1</t>
-  </si>
-  <si>
-    <t>68.68|1</t>
+    <t>4.1|73.4</t>
+  </si>
+  <si>
+    <t>1.9|0|22.8</t>
+  </si>
+  <si>
+    <t>64.3|20.21|13.3|9.58571428571429|20|15.8</t>
+  </si>
+  <si>
+    <t>61.82|21.19|13.6|9.8|21|16.3</t>
+  </si>
+  <si>
+    <t>55.41|23.1|13.7|9.9|22.9|17.2</t>
+  </si>
+  <si>
+    <t>69.38|20.38|14.6|10.4428571428571|20.3|16.6</t>
+  </si>
+  <si>
+    <t>65.48|21.29|14.6|10.4428571428571|21.2|16.9</t>
+  </si>
+  <si>
+    <t>61.85|21.6|14|10.0571428571429|21.4|16.7</t>
+  </si>
+  <si>
+    <t>82.32|1</t>
+  </si>
+  <si>
+    <t>74.32|1</t>
+  </si>
+  <si>
+    <t>51.9|1</t>
+  </si>
+  <si>
+    <t>72.74|1</t>
+  </si>
+  <si>
+    <t>70.4|1</t>
   </si>
   <si>
     <t xml:space="preserve"> |Hz|Hz|Hz|mm/s|mm/s|mm/s| | | | | | | | | | | | |%|Fahrenheit</t>
@@ -1303,139 +1159,142 @@
     <t>Temperature - 708013</t>
   </si>
   <si>
-    <t>2023-01-06 09:40:13</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:00:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 10:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:00:03</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:58:55</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:26:14</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:41:46</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:44:14</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:44:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:30:06</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:24:59</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:25:04</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:50:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:40:01</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:20:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:10:03</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:08:54</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:11:21</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:32:45</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:14:34</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:17:35</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:09:18</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:31:59</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:23:43</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:31:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:44:58</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:56:17</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:16:23</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:52:17</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:42:12</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:38:31</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:09:53</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:23:24</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:00:06</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:05:26</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:18:03</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:26:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:04:33</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:09:19</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:35:11</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:36:09</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:42:17</t>
-  </si>
-  <si>
-    <t>2023-01-06 09:01:55</t>
+    <t>2023-01-06 12:40:13</t>
+  </si>
+  <si>
+    <t>2023-01-06 13:00:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:58:55</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:26:14</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:41:46</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:44:14</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:44:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:30:06</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:24:59</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:25:04</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:50:01</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:40:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:30:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:20:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:10:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:01</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:08:54</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:11:21</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:32:45</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:14:34</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:17:35</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:09:18</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:31:59</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:23:43</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:31:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:44:58</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:56:17</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:16:23</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:52:17</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:42:12</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:38:31</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:09:53</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:23:24</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:00:06</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:05:26</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:18:03</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:26:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:04:33</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:09:19</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:35:11</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:36:09</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:42:17</t>
+  </si>
+  <si>
+    <t>2023-01-06 12:01:55</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1862,8 +1721,8 @@
       <c r="B2">
         <v>708014</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
+      <c r="C2">
+        <v>1672994413000</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1872,19 +1731,19 @@
         <v>77</v>
       </c>
       <c r="F2">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -1893,22 +1752,22 @@
         <v>949492</v>
       </c>
       <c r="M2" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="N2" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="O2" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="P2" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="Q2" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="R2" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1918,29 +1777,29 @@
       <c r="B3">
         <v>708015</v>
       </c>
-      <c r="C3" t="s">
-        <v>81</v>
+      <c r="C3">
+        <v>1672995600000</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1949,22 +1808,22 @@
         <v>949492</v>
       </c>
       <c r="M3" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="N3" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="O3" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="P3" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Q3" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="R3" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1972,31 +1831,31 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>708017</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
+        <v>708015</v>
+      </c>
+      <c r="C4">
+        <v>1672992000000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -2005,22 +1864,22 @@
         <v>949492</v>
       </c>
       <c r="M4" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="N4" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="O4" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="P4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Q4" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="R4" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2030,29 +1889,29 @@
       <c r="B5">
         <v>708017</v>
       </c>
-      <c r="C5" t="s">
-        <v>83</v>
+      <c r="C5">
+        <v>1672992002000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -2061,22 +1920,22 @@
         <v>949492</v>
       </c>
       <c r="M5" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="N5" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="O5" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="P5" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Q5" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="R5" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2086,29 +1945,29 @@
       <c r="B6">
         <v>708018</v>
       </c>
-      <c r="C6" t="s">
-        <v>81</v>
+      <c r="C6">
+        <v>1672992003000</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -2117,22 +1976,22 @@
         <v>949492</v>
       </c>
       <c r="M6" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="N6" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="O6" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="P6" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Q6" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="R6" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2142,8 +2001,8 @@
       <c r="B7">
         <v>707924</v>
       </c>
-      <c r="C7" t="s">
-        <v>84</v>
+      <c r="C7">
+        <v>1672995535000</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2158,13 +2017,13 @@
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -2173,22 +2032,22 @@
         <v>948914</v>
       </c>
       <c r="M7" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="N7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="O7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="P7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="Q7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="R7" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2198,14 +2057,14 @@
       <c r="B8">
         <v>707926</v>
       </c>
-      <c r="C8" t="s">
-        <v>85</v>
+      <c r="C8">
+        <v>1672993574000</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2.97</v>
@@ -2214,13 +2073,13 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="J8" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2229,22 +2088,22 @@
         <v>949492</v>
       </c>
       <c r="M8" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="N8" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="O8" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="P8" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="Q8" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="R8" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2254,8 +2113,8 @@
       <c r="B9">
         <v>707927</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
+      <c r="C9">
+        <v>1672994506000</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2264,19 +2123,19 @@
         <v>69</v>
       </c>
       <c r="F9">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="J9" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -2285,22 +2144,22 @@
         <v>948914</v>
       </c>
       <c r="M9" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="N9" t="s">
+        <v>286</v>
+      </c>
+      <c r="O9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P9" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q9" t="s">
         <v>335</v>
       </c>
-      <c r="O9" t="s">
-        <v>350</v>
-      </c>
-      <c r="P9" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>383</v>
-      </c>
       <c r="R9" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2310,14 +2169,14 @@
       <c r="B10">
         <v>707928</v>
       </c>
-      <c r="C10" t="s">
-        <v>87</v>
+      <c r="C10">
+        <v>1672994654000</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>2.95</v>
@@ -2326,13 +2185,13 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2341,22 +2200,22 @@
         <v>949492</v>
       </c>
       <c r="M10" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="N10" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="O10" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="P10" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="Q10" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="R10" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2366,29 +2225,29 @@
       <c r="B11">
         <v>707929</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
+      <c r="C11">
+        <v>1672994642000</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2397,22 +2256,22 @@
         <v>948914</v>
       </c>
       <c r="M11" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="N11" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="O11" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="P11" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="Q11" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="R11" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2422,8 +2281,8 @@
       <c r="B12">
         <v>707930</v>
       </c>
-      <c r="C12" t="s">
-        <v>89</v>
+      <c r="C12">
+        <v>1672993806000</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2432,19 +2291,19 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2453,22 +2312,22 @@
         <v>949492</v>
       </c>
       <c r="M12" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="N12" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="O12" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="P12" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="Q12" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="R12" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2478,14 +2337,14 @@
       <c r="B13">
         <v>707941</v>
       </c>
-      <c r="C13" t="s">
-        <v>90</v>
+      <c r="C13">
+        <v>1672993499000</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>3.08</v>
@@ -2494,13 +2353,13 @@
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -2509,22 +2368,22 @@
         <v>949492</v>
       </c>
       <c r="M13" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="N13" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="O13" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="P13" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="Q13" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="R13" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2534,8 +2393,8 @@
       <c r="B14">
         <v>707942</v>
       </c>
-      <c r="C14" t="s">
-        <v>91</v>
+      <c r="C14">
+        <v>1672993504000</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2550,13 +2409,13 @@
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2565,22 +2424,22 @@
         <v>949492</v>
       </c>
       <c r="M14" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="N14" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="O14" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="P14" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="Q14" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="R14" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2590,8 +2449,8 @@
       <c r="B15">
         <v>529932</v>
       </c>
-      <c r="C15" t="s">
-        <v>82</v>
+      <c r="C15">
+        <v>1672995600000</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2606,13 +2465,13 @@
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2621,22 +2480,22 @@
         <v>983756</v>
       </c>
       <c r="M15" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="N15" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="O15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P15" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="Q15" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="R15" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2646,8 +2505,8 @@
       <c r="B16">
         <v>529932</v>
       </c>
-      <c r="C16" t="s">
-        <v>92</v>
+      <c r="C16">
+        <v>1672992000000</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2662,13 +2521,13 @@
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2677,22 +2536,22 @@
         <v>983756</v>
       </c>
       <c r="M16" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="N16" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="O16" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="P16" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="Q16" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="R16" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2702,8 +2561,8 @@
       <c r="B17">
         <v>529925</v>
       </c>
-      <c r="C17" t="s">
-        <v>82</v>
+      <c r="C17">
+        <v>1672995001000</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2718,13 +2577,13 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2733,22 +2592,22 @@
         <v>983756</v>
       </c>
       <c r="M17" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="N17" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O17" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="P17" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q17" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="R17" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2758,8 +2617,8 @@
       <c r="B18">
         <v>529925</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
+      <c r="C18">
+        <v>1672994402000</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2774,13 +2633,13 @@
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2789,22 +2648,22 @@
         <v>983756</v>
       </c>
       <c r="M18" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="N18" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O18" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="P18" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q18" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="R18" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2814,8 +2673,8 @@
       <c r="B19">
         <v>529925</v>
       </c>
-      <c r="C19" t="s">
-        <v>94</v>
+      <c r="C19">
+        <v>1672993800000</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2830,13 +2689,13 @@
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2845,22 +2704,22 @@
         <v>983756</v>
       </c>
       <c r="M19" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="N19" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O19" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="P19" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q19" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="R19" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2870,8 +2729,8 @@
       <c r="B20">
         <v>529925</v>
       </c>
-      <c r="C20" t="s">
-        <v>95</v>
+      <c r="C20">
+        <v>1672993202000</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2886,13 +2745,13 @@
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2901,22 +2760,22 @@
         <v>983756</v>
       </c>
       <c r="M20" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="N20" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O20" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="P20" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q20" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="R20" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2926,8 +2785,8 @@
       <c r="B21">
         <v>529925</v>
       </c>
-      <c r="C21" t="s">
-        <v>96</v>
+      <c r="C21">
+        <v>1672992602000</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2942,13 +2801,13 @@
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2957,22 +2816,22 @@
         <v>983756</v>
       </c>
       <c r="M21" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="N21" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O21" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="P21" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q21" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="R21" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2982,8 +2841,8 @@
       <c r="B22">
         <v>529925</v>
       </c>
-      <c r="C22" t="s">
-        <v>97</v>
+      <c r="C22">
+        <v>1672992001000</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2998,13 +2857,13 @@
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -3013,22 +2872,22 @@
         <v>983756</v>
       </c>
       <c r="M22" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="N22" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O22" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="P22" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q22" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="R22" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3036,10 +2895,10 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>529925</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
+        <v>529926</v>
+      </c>
+      <c r="C23">
+        <v>1672992003000</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3048,19 +2907,19 @@
         <v>100</v>
       </c>
       <c r="F23">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -3069,22 +2928,22 @@
         <v>983756</v>
       </c>
       <c r="M23" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O23" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="P23" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q23" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="R23" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3092,55 +2951,55 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>529926</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
+        <v>707915</v>
+      </c>
+      <c r="C24">
+        <v>1672992002000</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F24">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="J24" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>983756</v>
+        <v>949492</v>
       </c>
       <c r="M24" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O24" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="P24" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q24" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="R24" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3148,31 +3007,31 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>707915</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
+        <v>707916</v>
+      </c>
+      <c r="C25">
+        <v>1672992000000</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="G25">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -3181,22 +3040,22 @@
         <v>949492</v>
       </c>
       <c r="M25" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O25" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="P25" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q25" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="R25" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3204,31 +3063,31 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>707916</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
+        <v>707917</v>
+      </c>
+      <c r="C26">
+        <v>1672992003000</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F26">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="G26">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -3237,22 +3096,22 @@
         <v>949492</v>
       </c>
       <c r="M26" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O26" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="P26" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q26" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="R26" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3260,31 +3119,31 @@
         <v>43</v>
       </c>
       <c r="B27">
-        <v>707917</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
+        <v>707918</v>
+      </c>
+      <c r="C27">
+        <v>1672992001000</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F27">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="G27">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -3293,22 +3152,22 @@
         <v>949492</v>
       </c>
       <c r="M27" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q27" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="R27" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3316,55 +3175,55 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>707917</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
+        <v>707919</v>
+      </c>
+      <c r="C28">
+        <v>1672992534000</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>2.57</v>
+        <v>2.96</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>949492</v>
+        <v>983756</v>
       </c>
       <c r="M28" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q28" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="R28" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3372,31 +3231,31 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>707918</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
+        <v>707920</v>
+      </c>
+      <c r="C29">
+        <v>1672992000000</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F29">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="G29">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -3405,22 +3264,22 @@
         <v>949492</v>
       </c>
       <c r="M29" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q29" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="R29" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3428,31 +3287,31 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>707918</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
+        <v>707922</v>
+      </c>
+      <c r="C30">
+        <v>1672992002000</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F30">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="G30">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -3461,22 +3320,22 @@
         <v>949492</v>
       </c>
       <c r="M30" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="P30" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q30" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="R30" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3484,10 +3343,10 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>707919</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
+        <v>525821</v>
+      </c>
+      <c r="C31">
+        <v>1672992681000</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3496,19 +3355,19 @@
         <v>100</v>
       </c>
       <c r="F31">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -3517,22 +3376,22 @@
         <v>983756</v>
       </c>
       <c r="M31" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="N31" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="Q31" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="R31" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3540,31 +3399,31 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>707920</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
+        <v>525822</v>
+      </c>
+      <c r="C32">
+        <v>1672993965000</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -3573,22 +3432,22 @@
         <v>949492</v>
       </c>
       <c r="M32" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="N32" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="P32" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="Q32" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="R32" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3596,31 +3455,31 @@
         <v>49</v>
       </c>
       <c r="B33">
-        <v>707922</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
+        <v>525826</v>
+      </c>
+      <c r="C33">
+        <v>1672992874000</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F33">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="G33">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -3629,22 +3488,22 @@
         <v>949492</v>
       </c>
       <c r="M33" t="s">
-        <v>322</v>
+        <v>109</v>
       </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="Q33" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="R33" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3652,55 +3511,55 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>525821</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
+        <v>525827</v>
+      </c>
+      <c r="C34">
+        <v>1672993055000</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F34">
-        <v>2.99</v>
+        <v>3.52</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>983756</v>
+        <v>949492</v>
       </c>
       <c r="M34" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="P34" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q34" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="R34" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3708,31 +3567,31 @@
         <v>51</v>
       </c>
       <c r="B35">
-        <v>525822</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
+        <v>707961</v>
+      </c>
+      <c r="C35">
+        <v>1672992558000</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="I35" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3741,22 +3600,22 @@
         <v>949492</v>
       </c>
       <c r="M35" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="N35" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="P35" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q35" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="R35" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3764,31 +3623,31 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>525826</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
+        <v>707962</v>
+      </c>
+      <c r="C36">
+        <v>1672992003000</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F36">
-        <v>3.01</v>
+        <v>2.39</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3797,22 +3656,22 @@
         <v>949492</v>
       </c>
       <c r="M36" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="N36" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="P36" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q36" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="R36" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3820,31 +3679,31 @@
         <v>53</v>
       </c>
       <c r="B37">
-        <v>525827</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
+        <v>707964</v>
+      </c>
+      <c r="C37">
+        <v>1672995600000</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37">
-        <v>3.52</v>
+        <v>3.13</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="I37" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3853,22 +3712,22 @@
         <v>949492</v>
       </c>
       <c r="M37" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="P37" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q37" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="R37" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3876,31 +3735,31 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>707961</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
+        <v>707964</v>
+      </c>
+      <c r="C38">
+        <v>1672992003000</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F38">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="J38" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -3909,22 +3768,22 @@
         <v>949492</v>
       </c>
       <c r="M38" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="P38" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q38" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="R38" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3932,31 +3791,31 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>707962</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
+        <v>707967</v>
+      </c>
+      <c r="C39">
+        <v>1672992000000</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F39">
-        <v>2.39</v>
+        <v>3.01</v>
       </c>
       <c r="G39">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="I39" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3965,22 +3824,22 @@
         <v>949492</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O39" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="P39" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q39" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="R39" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3988,55 +3847,55 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>707964</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
+        <v>707972</v>
+      </c>
+      <c r="C40">
+        <v>1672992000000</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F40">
-        <v>3.11</v>
+        <v>2.98</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="J40" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>949492</v>
+        <v>948914</v>
       </c>
       <c r="M40" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="N40" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O40" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="P40" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="Q40" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="R40" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4044,31 +3903,31 @@
         <v>57</v>
       </c>
       <c r="B41">
-        <v>707967</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
+        <v>707934</v>
+      </c>
+      <c r="C41">
+        <v>1672993919000</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F41">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="I41" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="J41" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -4077,22 +3936,22 @@
         <v>949492</v>
       </c>
       <c r="M41" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="Q41" t="s">
+        <v>360</v>
+      </c>
+      <c r="R41" t="s">
         <v>406</v>
-      </c>
-      <c r="R41" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4100,55 +3959,55 @@
         <v>58</v>
       </c>
       <c r="B42">
-        <v>707972</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
+        <v>707936</v>
+      </c>
+      <c r="C42">
+        <v>1672993423000</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F42">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>948914</v>
+        <v>949492</v>
       </c>
       <c r="M42" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="Q42" t="s">
+        <v>361</v>
+      </c>
+      <c r="R42" t="s">
         <v>407</v>
-      </c>
-      <c r="R42" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4156,31 +4015,31 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>707934</v>
-      </c>
-      <c r="C43" t="s">
-        <v>104</v>
+        <v>529918</v>
+      </c>
+      <c r="C43">
+        <v>1672993862000</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F43">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="I43" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -4189,22 +4048,22 @@
         <v>949492</v>
       </c>
       <c r="M43" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="P43" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="Q43" t="s">
+        <v>362</v>
+      </c>
+      <c r="R43" t="s">
         <v>408</v>
-      </c>
-      <c r="R43" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4212,31 +4071,31 @@
         <v>60</v>
       </c>
       <c r="B44">
-        <v>707936</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
+        <v>707997</v>
+      </c>
+      <c r="C44">
+        <v>1672994698000</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -4245,22 +4104,22 @@
         <v>949492</v>
       </c>
       <c r="M44" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="N44" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="O44" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="P44" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="Q44" t="s">
+        <v>363</v>
+      </c>
+      <c r="R44" t="s">
         <v>409</v>
-      </c>
-      <c r="R44" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4268,31 +4127,31 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>529918</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
+        <v>707998</v>
+      </c>
+      <c r="C45">
+        <v>1672995377000</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F45">
-        <v>3.09</v>
+        <v>2.56</v>
       </c>
       <c r="G45">
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="I45" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="J45" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -4301,22 +4160,22 @@
         <v>949492</v>
       </c>
       <c r="M45" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="N45" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="P45" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Q45" t="s">
+        <v>364</v>
+      </c>
+      <c r="R45" t="s">
         <v>410</v>
-      </c>
-      <c r="R45" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4324,31 +4183,31 @@
         <v>62</v>
       </c>
       <c r="B46">
-        <v>707997</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
+        <v>708001</v>
+      </c>
+      <c r="C46">
+        <v>1672992983000</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F46">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="G46">
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="I46" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="J46" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -4357,22 +4216,22 @@
         <v>949492</v>
       </c>
       <c r="M46" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="N46" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="P46" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Q46" t="s">
+        <v>365</v>
+      </c>
+      <c r="R46" t="s">
         <v>411</v>
-      </c>
-      <c r="R46" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4380,16 +4239,16 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>707998</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
+        <v>708002</v>
+      </c>
+      <c r="C47">
+        <v>1672995137000</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F47">
         <v>2.58</v>
@@ -4398,13 +4257,13 @@
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="I47" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="J47" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4413,22 +4272,22 @@
         <v>949492</v>
       </c>
       <c r="M47" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="N47" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="O47" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="P47" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Q47" t="s">
+        <v>366</v>
+      </c>
+      <c r="R47" t="s">
         <v>412</v>
-      </c>
-      <c r="R47" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4436,31 +4295,31 @@
         <v>64</v>
       </c>
       <c r="B48">
-        <v>708001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
+        <v>708003</v>
+      </c>
+      <c r="C48">
+        <v>1672994532000</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F48">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="G48">
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4469,22 +4328,22 @@
         <v>949492</v>
       </c>
       <c r="M48" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="N48" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="O48" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="P48" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="Q48" t="s">
+        <v>367</v>
+      </c>
+      <c r="R48" t="s">
         <v>413</v>
-      </c>
-      <c r="R48" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4492,31 +4351,31 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>708002</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
+        <v>707894</v>
+      </c>
+      <c r="C49">
+        <v>1672994311000</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F49">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="J49" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4525,22 +4384,22 @@
         <v>949492</v>
       </c>
       <c r="M49" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="N49" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="O49" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="P49" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="Q49" t="s">
+        <v>368</v>
+      </c>
+      <c r="R49" t="s">
         <v>414</v>
-      </c>
-      <c r="R49" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4548,31 +4407,31 @@
         <v>66</v>
       </c>
       <c r="B50">
-        <v>708003</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
+        <v>707895</v>
+      </c>
+      <c r="C50">
+        <v>1672992593000</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F50">
-        <v>2.57</v>
+        <v>3.02</v>
       </c>
       <c r="G50">
         <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="I50" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J50" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4581,22 +4440,22 @@
         <v>949492</v>
       </c>
       <c r="M50" t="s">
+        <v>281</v>
+      </c>
+      <c r="N50" t="s">
+        <v>293</v>
+      </c>
+      <c r="O50" t="s">
+        <v>314</v>
+      </c>
+      <c r="P50" t="s">
         <v>328</v>
       </c>
-      <c r="N50" t="s">
-        <v>341</v>
-      </c>
-      <c r="O50" t="s">
-        <v>360</v>
-      </c>
-      <c r="P50" t="s">
-        <v>375</v>
-      </c>
       <c r="Q50" t="s">
+        <v>369</v>
+      </c>
+      <c r="R50" t="s">
         <v>415</v>
-      </c>
-      <c r="R50" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4604,31 +4463,31 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>707894</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
+        <v>707896</v>
+      </c>
+      <c r="C51">
+        <v>1672993404000</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F51">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="G51">
         <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="I51" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="J51" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4637,22 +4496,22 @@
         <v>949492</v>
       </c>
       <c r="M51" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="N51" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="O51" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="P51" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="Q51" t="s">
+        <v>370</v>
+      </c>
+      <c r="R51" t="s">
         <v>416</v>
-      </c>
-      <c r="R51" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4660,31 +4519,31 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>707895</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
+        <v>707898</v>
+      </c>
+      <c r="C52">
+        <v>1672992006000</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="G52">
         <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="I52" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="J52" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4693,22 +4552,22 @@
         <v>949492</v>
       </c>
       <c r="M52" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="N52" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="O52" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="P52" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="Q52" t="s">
+        <v>371</v>
+      </c>
+      <c r="R52" t="s">
         <v>417</v>
-      </c>
-      <c r="R52" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4716,31 +4575,31 @@
         <v>69</v>
       </c>
       <c r="B53">
-        <v>707896</v>
-      </c>
-      <c r="C53" t="s">
-        <v>114</v>
+        <v>707901</v>
+      </c>
+      <c r="C53">
+        <v>1672992326000</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F53">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="G53">
         <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="I53" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="J53" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4749,22 +4608,22 @@
         <v>949492</v>
       </c>
       <c r="M53" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="N53" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="O53" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="P53" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="Q53" t="s">
+        <v>372</v>
+      </c>
+      <c r="R53" t="s">
         <v>418</v>
-      </c>
-      <c r="R53" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4772,31 +4631,31 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>707898</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
+        <v>708005</v>
+      </c>
+      <c r="C54">
+        <v>1672993083000</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F54">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="I54" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="J54" t="s">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4805,22 +4664,22 @@
         <v>949492</v>
       </c>
       <c r="M54" t="s">
-        <v>332</v>
+        <v>130</v>
       </c>
       <c r="N54" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="O54" t="s">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="Q54" t="s">
+        <v>373</v>
+      </c>
+      <c r="R54" t="s">
         <v>419</v>
-      </c>
-      <c r="R54" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4828,31 +4687,31 @@
         <v>71</v>
       </c>
       <c r="B55">
-        <v>707901</v>
-      </c>
-      <c r="C55" t="s">
-        <v>116</v>
+        <v>708006</v>
+      </c>
+      <c r="C55">
+        <v>1672993560000</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F55">
-        <v>3.03</v>
+        <v>1.98</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="J55" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4861,22 +4720,22 @@
         <v>949492</v>
       </c>
       <c r="M55" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="N55" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="O55" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="Q55" t="s">
+        <v>374</v>
+      </c>
+      <c r="R55" t="s">
         <v>420</v>
-      </c>
-      <c r="R55" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4884,31 +4743,31 @@
         <v>72</v>
       </c>
       <c r="B56">
-        <v>708005</v>
-      </c>
-      <c r="C56" t="s">
-        <v>117</v>
+        <v>708008</v>
+      </c>
+      <c r="C56">
+        <v>1672992273000</v>
       </c>
       <c r="D56">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F56">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="G56">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="I56" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4917,22 +4776,22 @@
         <v>949492</v>
       </c>
       <c r="M56" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="N56" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="O56" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="Q56" t="s">
+        <v>375</v>
+      </c>
+      <c r="R56" t="s">
         <v>421</v>
-      </c>
-      <c r="R56" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4940,55 +4799,55 @@
         <v>73</v>
       </c>
       <c r="B57">
-        <v>708006</v>
-      </c>
-      <c r="C57" t="s">
-        <v>118</v>
+        <v>708009</v>
+      </c>
+      <c r="C57">
+        <v>1672992559000</v>
       </c>
       <c r="D57">
         <v>16</v>
       </c>
       <c r="E57">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F57">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="J57" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>949492</v>
+        <v>948914</v>
       </c>
       <c r="M57" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="N57" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="O57" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="Q57" t="s">
+        <v>376</v>
+      </c>
+      <c r="R57" t="s">
         <v>422</v>
-      </c>
-      <c r="R57" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4996,31 +4855,31 @@
         <v>74</v>
       </c>
       <c r="B58">
-        <v>708008</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
+        <v>708010</v>
+      </c>
+      <c r="C58">
+        <v>1672994111000</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58">
-        <v>2.24</v>
+        <v>2.49</v>
       </c>
       <c r="G58">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="I58" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="J58" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -5029,22 +4888,22 @@
         <v>949492</v>
       </c>
       <c r="M58" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="N58" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="O58" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="P58" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="Q58" t="s">
+        <v>377</v>
+      </c>
+      <c r="R58" t="s">
         <v>423</v>
-      </c>
-      <c r="R58" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5052,55 +4911,49 @@
         <v>75</v>
       </c>
       <c r="B59">
-        <v>708009</v>
-      </c>
-      <c r="C59" t="s">
-        <v>120</v>
+        <v>708011</v>
+      </c>
+      <c r="C59">
+        <v>1672994169000</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F59">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I59" t="s">
-        <v>241</v>
-      </c>
-      <c r="J59" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>948914</v>
+        <v>949492</v>
       </c>
       <c r="M59" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N59" t="s">
-        <v>340</v>
-      </c>
-      <c r="O59" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="P59" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="Q59" t="s">
+        <v>378</v>
+      </c>
+      <c r="R59" t="s">
         <v>424</v>
-      </c>
-      <c r="R59" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5108,31 +4961,31 @@
         <v>76</v>
       </c>
       <c r="B60">
-        <v>708010</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
+        <v>708012</v>
+      </c>
+      <c r="C60">
+        <v>1672994537000</v>
       </c>
       <c r="D60">
         <v>16</v>
       </c>
       <c r="E60">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F60">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="G60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I60" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="J60" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -5141,22 +4994,22 @@
         <v>949492</v>
       </c>
       <c r="M60" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="N60" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="O60" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="P60" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="Q60" t="s">
+        <v>379</v>
+      </c>
+      <c r="R60" t="s">
         <v>425</v>
-      </c>
-      <c r="R60" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5164,16 +5017,16 @@
         <v>77</v>
       </c>
       <c r="B61">
-        <v>708011</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
+        <v>708013</v>
+      </c>
+      <c r="C61">
+        <v>1672992115000</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F61">
         <v>2.45</v>
@@ -5182,10 +5035,13 @@
         <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="I61" t="s">
-        <v>244</v>
+        <v>197</v>
+      </c>
+      <c r="J61" t="s">
+        <v>137</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5194,131 +5050,22 @@
         <v>949492</v>
       </c>
       <c r="M61" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="N61" t="s">
-        <v>340</v>
+        <v>291</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="Q61" t="s">
+        <v>380</v>
+      </c>
+      <c r="R61" t="s">
         <v>426</v>
-      </c>
-      <c r="R61" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62">
-        <v>708012</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62">
-        <v>16</v>
-      </c>
-      <c r="E62">
-        <v>83</v>
-      </c>
-      <c r="F62">
-        <v>2.08</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>184</v>
-      </c>
-      <c r="I62" t="s">
-        <v>245</v>
-      </c>
-      <c r="J62" t="s">
-        <v>184</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>949492</v>
-      </c>
-      <c r="M62" t="s">
-        <v>184</v>
-      </c>
-      <c r="N62" t="s">
-        <v>340</v>
-      </c>
-      <c r="O62" t="s">
-        <v>184</v>
-      </c>
-      <c r="P62" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>427</v>
-      </c>
-      <c r="R62" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63">
-        <v>708013</v>
-      </c>
-      <c r="C63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63">
-        <v>16</v>
-      </c>
-      <c r="E63">
-        <v>90</v>
-      </c>
-      <c r="F63">
-        <v>2.42</v>
-      </c>
-      <c r="G63">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s">
-        <v>185</v>
-      </c>
-      <c r="I63" t="s">
-        <v>246</v>
-      </c>
-      <c r="J63" t="s">
-        <v>185</v>
-      </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>949492</v>
-      </c>
-      <c r="M63" t="s">
-        <v>185</v>
-      </c>
-      <c r="N63" t="s">
-        <v>340</v>
-      </c>
-      <c r="O63" t="s">
-        <v>185</v>
-      </c>
-      <c r="P63" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>428</v>
-      </c>
-      <c r="R63" t="s">
-        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Sensor data.xlsx
+++ b/Sensor data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="405">
   <si>
     <t>DataMessageGUID</t>
   </si>
@@ -64,361 +64,388 @@
     <t>PlotLabels</t>
   </si>
   <si>
-    <t>SensorName</t>
-  </si>
-  <si>
-    <t>Time_stamp</t>
-  </si>
-  <si>
-    <t>6d2726cf-3ddf-4c93-b2a1-19c76dc70f3c</t>
-  </si>
-  <si>
-    <t>ba00ff7d-74ce-4be4-9156-34b4e1d0a64f</t>
-  </si>
-  <si>
-    <t>e907af47-72cf-4e4a-9662-17b1bd0975aa</t>
-  </si>
-  <si>
-    <t>93ce3294-c8c5-43c3-8782-ec1ebc81f40b</t>
-  </si>
-  <si>
-    <t>791e5219-4599-42c4-9f3a-ce87a1ec78f0</t>
-  </si>
-  <si>
-    <t>a89156e6-ba89-4745-a266-d8d0f7d3436e</t>
-  </si>
-  <si>
-    <t>31df4525-1f8a-43db-8e2b-1dcaa899d632</t>
-  </si>
-  <si>
-    <t>5c3fd875-6eff-4867-9572-9f29bf036f4b</t>
-  </si>
-  <si>
-    <t>445f6546-88f6-425a-b196-840d95559039</t>
-  </si>
-  <si>
-    <t>df139e85-e107-42cf-a082-a699d19bc1ac</t>
-  </si>
-  <si>
-    <t>065c8ab0-fe8e-4041-8bb1-6040edf3112c</t>
-  </si>
-  <si>
-    <t>b844449c-00c0-4d6a-83e4-b60353755b4d</t>
-  </si>
-  <si>
-    <t>e5088e4c-a71f-4641-9d4f-ceb7f2aa1c4c</t>
-  </si>
-  <si>
-    <t>7c657de7-96ff-4235-b979-e92f9411379c</t>
-  </si>
-  <si>
-    <t>214ba9d6-4972-4440-b309-17b63cdd0a60</t>
-  </si>
-  <si>
-    <t>bca34c2d-42fd-4aa2-8664-d8a416eb32ff</t>
-  </si>
-  <si>
-    <t>8ac7f07b-e7de-479f-bd15-85bc40b12c17</t>
-  </si>
-  <si>
-    <t>e5b32b90-542c-4c64-9221-064b9c14d6d9</t>
-  </si>
-  <si>
-    <t>65c277a2-098c-4b2b-a631-1fae95a95b50</t>
-  </si>
-  <si>
-    <t>108f1289-c119-4b31-a664-8f9ece696ef3</t>
-  </si>
-  <si>
-    <t>a6261229-bbeb-4b70-a942-791fdd08d13e</t>
-  </si>
-  <si>
-    <t>faca7b7b-3c9f-47b2-9324-d970a1568e94</t>
-  </si>
-  <si>
-    <t>39ebe356-484c-44a9-a822-b58e1f4dc310</t>
-  </si>
-  <si>
-    <t>b3190eea-6d61-4224-9e2a-8c73d5819cb3</t>
-  </si>
-  <si>
-    <t>524d486b-ab0c-4120-ab4b-7abd28291f66</t>
-  </si>
-  <si>
-    <t>0c729fd9-a5fd-4ee5-b437-6d1155df21ed</t>
-  </si>
-  <si>
-    <t>1da1a5b8-aa08-4b68-a40f-7fd0923f2006</t>
-  </si>
-  <si>
-    <t>5d61a1b6-e085-4a66-9214-e694d6d214c3</t>
-  </si>
-  <si>
-    <t>92147e4f-812d-40ee-8573-18f44c516105</t>
-  </si>
-  <si>
-    <t>43ef4674-11ea-46e0-8b64-2afc269c12b6</t>
-  </si>
-  <si>
-    <t>d0127fe1-9c6f-4444-aec9-f285184b0a30</t>
-  </si>
-  <si>
-    <t>b9d9eaec-6816-40f1-a918-431de6a05346</t>
-  </si>
-  <si>
-    <t>2845bfde-fba9-4a75-adef-eb46b0724834</t>
-  </si>
-  <si>
-    <t>9802a89c-0155-4b49-bd96-6b1d2f55298c</t>
-  </si>
-  <si>
-    <t>44c8d53d-8376-4057-8de1-0a3e604fb2bd</t>
-  </si>
-  <si>
-    <t>c91453f9-e260-439c-965a-799b44aaa163</t>
-  </si>
-  <si>
-    <t>720ade86-d13d-4e31-ba8e-0fd17987b50f</t>
-  </si>
-  <si>
-    <t>3531cfe9-1edb-4003-a770-6d1d62f7adba</t>
-  </si>
-  <si>
-    <t>e8c7ef4e-587e-46ef-9706-d3d998717799</t>
-  </si>
-  <si>
-    <t>94356599-729a-401d-908c-9b1788db6c2c</t>
-  </si>
-  <si>
-    <t>f489f829-a4f2-48e6-8fed-994a95b705d2</t>
-  </si>
-  <si>
-    <t>4fe61895-af8d-4e15-a9dd-9b58823731ff</t>
-  </si>
-  <si>
-    <t>8387aa8e-e35e-48f1-a94b-0952cea771b0</t>
-  </si>
-  <si>
-    <t>73cea374-2a5a-4da6-9338-d3254223de3a</t>
-  </si>
-  <si>
-    <t>91b9062f-f341-4fe5-99d9-6fbfa2ef028c</t>
-  </si>
-  <si>
-    <t>e898417c-376e-49c9-875b-22cc8444e034</t>
-  </si>
-  <si>
-    <t>676f365b-1467-4dcd-84fd-b3cb11220ca0</t>
-  </si>
-  <si>
-    <t>ce4876f9-c5ec-4105-a233-bc5374b78e42</t>
-  </si>
-  <si>
-    <t>9db939b9-5b24-43ad-96d7-dbb790119370</t>
-  </si>
-  <si>
-    <t>49a1e86e-4457-4334-9895-39b3821ef0a7</t>
-  </si>
-  <si>
-    <t>ed556398-88af-4e3a-96c1-86591c2a58e7</t>
-  </si>
-  <si>
-    <t>32247936-da2b-48fe-9eef-42551b9e1979</t>
-  </si>
-  <si>
-    <t>cd5c1df8-36d8-4eb5-8ce4-03b85ccbb7c1</t>
-  </si>
-  <si>
-    <t>21f728d2-d585-4f70-b10b-bfc6464d760f</t>
-  </si>
-  <si>
-    <t>94bf6370-67f0-460b-94de-e8f84d65535a</t>
-  </si>
-  <si>
-    <t>f6313328-9fb8-4b26-9b35-cb1d98d88211</t>
-  </si>
-  <si>
-    <t>52d1eea2-4dc7-4437-af95-d627d2cef1cb</t>
-  </si>
-  <si>
-    <t>4ae3c20c-bb6e-446c-a5f4-079507aaae68</t>
-  </si>
-  <si>
-    <t>08e1fd02-bc1d-49d6-a76b-bd954163d744</t>
-  </si>
-  <si>
-    <t>3df6833e-253f-426b-8f4f-d98219cdfb2b</t>
-  </si>
-  <si>
-    <t>0|38.6|56|37.8|2.25|2.42|4.23|0|0|0|0|0|0|0|0|0|3.47|2.35|2.89|100|24.1|0</t>
-  </si>
-  <si>
-    <t>0|34|43.6|42.4|7.64|13.61|10.61|0|0|0|0|0|0|0|0|0|2.18|2.51|1.84|100|28.5|0</t>
-  </si>
-  <si>
-    <t>0|32.8|43.2|42.6|5.32|15.02|11.94|0|0|0|0|0|0|0|0|0|2.37|2.62|2.05|100|29.3|0</t>
-  </si>
-  <si>
-    <t>0|43.2|29.4|42.8|1.14|1.57|1.77|0|0|0|0|0|0|0|0|0|3.19|2.82|3.06|100|30.9|0</t>
-  </si>
-  <si>
-    <t>0|50.8|50.8|50.6|6.03|19.69|12.03|0|0|0|0|0|0|0|0|0|2.9|2.4|2.23|100|37.3|0</t>
-  </si>
-  <si>
-    <t>10|12|9|0</t>
-  </si>
-  <si>
-    <t>18|18|13|0</t>
-  </si>
-  <si>
-    <t>17|20|11|0</t>
-  </si>
-  <si>
-    <t>20|26|14|0</t>
-  </si>
-  <si>
-    <t>19|19|15|0</t>
-  </si>
-  <si>
-    <t>20|20|14|0</t>
-  </si>
-  <si>
-    <t>4.1|23|0</t>
-  </si>
-  <si>
-    <t>6.4|20.9|0</t>
-  </si>
-  <si>
-    <t>1.9|0|22.8|3901|0</t>
-  </si>
-  <si>
-    <t>0|0|22.9|3881|0</t>
-  </si>
-  <si>
-    <t>668|698|0|681</t>
-  </si>
-  <si>
-    <t>674|704|0|712</t>
-  </si>
-  <si>
-    <t>654|708|0|692</t>
-  </si>
-  <si>
-    <t>620|715|0|672</t>
-  </si>
-  <si>
-    <t>612|720|0|625</t>
-  </si>
-  <si>
-    <t>634|727|0|657</t>
-  </si>
-  <si>
-    <t>998|891|0|832</t>
-  </si>
-  <si>
-    <t>0|1|0|413</t>
-  </si>
-  <si>
-    <t>541|542|0|318</t>
-  </si>
-  <si>
-    <t>196|204|0|336</t>
-  </si>
-  <si>
-    <t>473|470|0|357</t>
-  </si>
-  <si>
-    <t>704|770|0|682</t>
-  </si>
-  <si>
-    <t>379|367|0|422</t>
-  </si>
-  <si>
-    <t>449|452|0|379</t>
+    <t>SensorType</t>
+  </si>
+  <si>
+    <t>DateTimeStamp</t>
+  </si>
+  <si>
+    <t>996f587b-7591-4ec0-9122-389f801f5e5d</t>
+  </si>
+  <si>
+    <t>f2f36bec-2650-45d2-b85e-e1712bb80a79</t>
+  </si>
+  <si>
+    <t>23760f9b-79c7-4592-9840-a08865765b86</t>
+  </si>
+  <si>
+    <t>b6e57234-5472-4af3-9be4-31f02549c4cc</t>
+  </si>
+  <si>
+    <t>5d91e816-0e2a-48f9-ab0e-51204ee21873</t>
+  </si>
+  <si>
+    <t>e1d164e5-73d4-4d6c-ad3d-d00dde48ed65</t>
+  </si>
+  <si>
+    <t>eb2c566a-5468-4360-abec-0cefba062e48</t>
+  </si>
+  <si>
+    <t>7eaed3f6-cbec-4102-80f3-1a67944f74b7</t>
+  </si>
+  <si>
+    <t>e97bb4cc-33db-4c80-b3e3-ca5281a22e78</t>
+  </si>
+  <si>
+    <t>bba1cd4c-e23d-4d3d-9f2b-b0da104f6732</t>
+  </si>
+  <si>
+    <t>2d71120b-1855-4f48-9e45-a1d09e413eb1</t>
+  </si>
+  <si>
+    <t>1cbef640-4d44-44e2-9a50-07bbd129971e</t>
+  </si>
+  <si>
+    <t>34a53d8b-2345-46ed-a5dc-e27e1656c43e</t>
+  </si>
+  <si>
+    <t>9a467536-b3cb-4ed3-9e41-d933043f8540</t>
+  </si>
+  <si>
+    <t>1a1b8b68-f97b-4c99-9a7b-0a7bef870769</t>
+  </si>
+  <si>
+    <t>8d0c0e02-45e0-4399-b216-17740674b9e2</t>
+  </si>
+  <si>
+    <t>d7559125-0440-4dd3-9b96-0ed146057d83</t>
+  </si>
+  <si>
+    <t>8123a472-2d25-441c-a474-46bae60dee33</t>
+  </si>
+  <si>
+    <t>40ddaee5-04bc-49c3-908e-3999bee79042</t>
+  </si>
+  <si>
+    <t>ac0347b6-eb07-43d2-8aa6-ac4d2679b177</t>
+  </si>
+  <si>
+    <t>a6d40e8f-ab23-49d7-aff0-4ef40a671e27</t>
+  </si>
+  <si>
+    <t>b3d63597-94a9-4fc7-8354-33cd3808a1ff</t>
+  </si>
+  <si>
+    <t>439479b1-5eb6-4be1-98f2-df3a54f9e9aa</t>
+  </si>
+  <si>
+    <t>e225bda4-b428-42d1-a1e4-b3d30ea3fe8b</t>
+  </si>
+  <si>
+    <t>3624d9f5-fd03-4132-aee4-bcb6470ed30f</t>
+  </si>
+  <si>
+    <t>122430c3-3670-424b-afa6-fb09d2f9c43a</t>
+  </si>
+  <si>
+    <t>3ecbdaf2-17b4-43a4-8b0a-6bd0fd8e3fb8</t>
+  </si>
+  <si>
+    <t>8aec74a1-b70d-4e48-91ed-8521706ccc3e</t>
+  </si>
+  <si>
+    <t>d91102ad-d5de-456e-966b-7d57472276f6</t>
+  </si>
+  <si>
+    <t>3f97008c-27b0-48ce-9f02-3495bd14ee5a</t>
+  </si>
+  <si>
+    <t>7cd1079d-df5a-4f6b-b573-c0b470cdf3a4</t>
+  </si>
+  <si>
+    <t>eda31ef5-9be3-4ad2-afb7-5fe9b3da459c</t>
+  </si>
+  <si>
+    <t>f513952e-0b55-412a-8110-94657c06cdf6</t>
+  </si>
+  <si>
+    <t>7819b8b6-eec6-4a9b-9e13-d127b9ccc5f6</t>
+  </si>
+  <si>
+    <t>78e2bc32-dbb2-45e5-9135-54c8f22aae7b</t>
+  </si>
+  <si>
+    <t>185036f3-fab1-4741-aabc-0d0226a56fee</t>
+  </si>
+  <si>
+    <t>c336eef6-6d85-4206-905c-b8dca9dd205c</t>
+  </si>
+  <si>
+    <t>3ae19e46-389d-4c24-9cbe-ed87ead350d1</t>
+  </si>
+  <si>
+    <t>bc750376-aa1b-409b-a2e0-fa7830fabf90</t>
+  </si>
+  <si>
+    <t>406dea43-adc0-45e4-acaa-bf53567af1a0</t>
+  </si>
+  <si>
+    <t>96da1bfb-a756-47f8-ae5b-4f508829b888</t>
+  </si>
+  <si>
+    <t>89d01653-b40b-41ca-96a8-4b2f2e2a3597</t>
+  </si>
+  <si>
+    <t>7509f09f-5027-4c49-9c95-65fe4390ef67</t>
+  </si>
+  <si>
+    <t>ad97ca37-4c39-4f61-ac4f-ea2de9701ba9</t>
+  </si>
+  <si>
+    <t>1e558427-d443-4574-943a-2b04f405452d</t>
+  </si>
+  <si>
+    <t>4cc5136f-f6b9-4e93-b7af-d4a93865fd73</t>
+  </si>
+  <si>
+    <t>1ed70a2d-46f3-492a-baa7-e5f29eada667</t>
+  </si>
+  <si>
+    <t>b04dfa55-66bc-46ae-8c1a-2ec71054af83</t>
+  </si>
+  <si>
+    <t>2cb7233b-a396-4fde-bdd1-6c4f49b9d97f</t>
+  </si>
+  <si>
+    <t>9f1a9605-b02e-42ff-a9ad-8f2d95b9d33f</t>
+  </si>
+  <si>
+    <t>edb45b85-caec-430f-8b2e-cd85b2c1ee8a</t>
+  </si>
+  <si>
+    <t>fa683028-8390-490d-8d08-678df9741dcf</t>
+  </si>
+  <si>
+    <t>a7322ec0-c80c-4b6c-8f20-691ad4edb9f2</t>
+  </si>
+  <si>
+    <t>0b3c8c22-d197-4acf-a49f-7498e305f496</t>
+  </si>
+  <si>
+    <t>bc05e332-7762-42bf-881d-53b4f269ae4b</t>
+  </si>
+  <si>
+    <t>c368970a-4d06-4895-aa98-49b771626473</t>
+  </si>
+  <si>
+    <t>5bba7c9d-f01b-404e-8a97-bfe7f03f4297</t>
+  </si>
+  <si>
+    <t>96d3ad61-23b5-477f-853a-c3b48102b75a</t>
+  </si>
+  <si>
+    <t>53734975-bb62-4eaf-a31a-65a6cdd708cd</t>
+  </si>
+  <si>
+    <t>5564581d-dfe2-4963-bdd6-bc33cfb67833</t>
+  </si>
+  <si>
+    <t>60f08675-9db9-474c-bc03-30d67067c1c1</t>
+  </si>
+  <si>
+    <t>812e4531-6805-4027-9ed1-d360bd036577</t>
+  </si>
+  <si>
+    <t>59f121d2-c9eb-4602-bec8-3b822e804e90</t>
+  </si>
+  <si>
+    <t>d2ff57cd-a1c8-48f0-a7a2-0bfdf4cbc2a1</t>
+  </si>
+  <si>
+    <t>48779648-6356-4702-b669-8d48c5737dd7</t>
+  </si>
+  <si>
+    <t>0|39.8|36.8|39.4|2.64|2.13|3.91|0|0|0|0|0|0|0|0|0|2.53|2.92|2.78|100|26.5|0</t>
+  </si>
+  <si>
+    <t>0|37.2|42.4|41.6|10.3|16.54|12.53|0|0|0|0|0|0|0|0|0|2.28|2.72|1.95|100|22.5|0</t>
+  </si>
+  <si>
+    <t>0|42.4|62.4|41.8|1.72|1.21|2.44|0|0|0|0|0|0|0|0|0|2.92|2.77|2.98|100|31.8|0</t>
+  </si>
+  <si>
+    <t>0|31.8|63|40.2|1.45|0.98|1.78|0|0|0|0|0|0|0|0|0|2.44|3.08|2.4|100|31.6|0</t>
+  </si>
+  <si>
+    <t>0|50.4|50.6|51|6.51|19.63|11.58|0|0|0|0|0|0|0|0|0|2.58|2.34|2.2|100|37.8|0</t>
+  </si>
+  <si>
+    <t>0|50.6|50.4|51|6.37|18.39|10.21|0|0|0|0|0|0|0|0|0|2.26|2.21|2.36|100|37.9|0</t>
+  </si>
+  <si>
+    <t>0|50.4|50.2|50.4|7.31|20.29|11.47|0|0|0|0|0|0|0|0|0|2.26|2.21|2.67|100|37.8|0</t>
+  </si>
+  <si>
+    <t>11|12|8|0</t>
+  </si>
+  <si>
+    <t>19|21|12|0</t>
+  </si>
+  <si>
+    <t>25|29|16|0</t>
+  </si>
+  <si>
+    <t>18|22|10|0</t>
+  </si>
+  <si>
+    <t>19|20|14|0</t>
+  </si>
+  <si>
+    <t>4|23.3|0</t>
+  </si>
+  <si>
+    <t>2.5|20.4|0</t>
+  </si>
+  <si>
+    <t>0|0|22.8|3883|0</t>
+  </si>
+  <si>
+    <t>0|0|22.8|3884|0</t>
+  </si>
+  <si>
+    <t>646|641|0|681</t>
+  </si>
+  <si>
+    <t>643|646|0|668</t>
+  </si>
+  <si>
+    <t>651|651|0|675</t>
+  </si>
+  <si>
+    <t>657|655|0|684</t>
+  </si>
+  <si>
+    <t>671|660|0|686</t>
+  </si>
+  <si>
+    <t>675|664|0|712</t>
+  </si>
+  <si>
+    <t>913|893|0|730</t>
+  </si>
+  <si>
+    <t>0|0|0|380</t>
+  </si>
+  <si>
+    <t>567|546|0|335</t>
+  </si>
+  <si>
+    <t>544|544|0|331</t>
+  </si>
+  <si>
+    <t>191|193|0|324</t>
+  </si>
+  <si>
+    <t>179|196|0|305</t>
+  </si>
+  <si>
+    <t>468|474|0|355</t>
+  </si>
+  <si>
+    <t>718|712|0|661</t>
+  </si>
+  <si>
+    <t>410|366|0|441</t>
+  </si>
+  <si>
+    <t>373|361|0|430</t>
+  </si>
+  <si>
+    <t>478|453|0|411</t>
+  </si>
+  <si>
+    <t>449|451|0|388</t>
   </si>
   <si>
     <t>0|22.7</t>
   </si>
   <si>
-    <t>60|24.1</t>
-  </si>
-  <si>
-    <t>55.2|23</t>
-  </si>
-  <si>
-    <t>348.2|23.5</t>
-  </si>
-  <si>
-    <t>292.7|24</t>
-  </si>
-  <si>
-    <t>309.2|23.8</t>
-  </si>
-  <si>
-    <t>51.7|24.3</t>
-  </si>
-  <si>
-    <t>36.9|24</t>
-  </si>
-  <si>
-    <t>152.5|23.4</t>
-  </si>
-  <si>
-    <t>183.1|23.9</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>64.3,20.21,13.3,67.1,20,15.8</t>
-  </si>
-  <si>
-    <t>61.82,21.19,13.6,68.6,21,16.3</t>
-  </si>
-  <si>
-    <t>55.41,23.1,13.7,69.3,22.9,17.2</t>
-  </si>
-  <si>
-    <t>69.38,20.38,14.6,73.1,20.3,16.6</t>
-  </si>
-  <si>
-    <t>65.48,21.29,14.6,73.1,21.2,16.9</t>
-  </si>
-  <si>
-    <t>61.85,21.6,14,70.4,21.4,16.7</t>
-  </si>
-  <si>
-    <t>82.32|True|0</t>
-  </si>
-  <si>
-    <t>74.32|True|0</t>
-  </si>
-  <si>
-    <t>51.9|True|0</t>
-  </si>
-  <si>
-    <t>72.74|True|0</t>
-  </si>
-  <si>
-    <t>70.4|True|0</t>
-  </si>
-  <si>
-    <t>21.8</t>
-  </si>
-  <si>
-    <t>18.9</t>
+    <t>66.6|24.6</t>
+  </si>
+  <si>
+    <t>57|23.3</t>
+  </si>
+  <si>
+    <t>349.4|23.8</t>
+  </si>
+  <si>
+    <t>290|24.6</t>
+  </si>
+  <si>
+    <t>302.1|24.3</t>
+  </si>
+  <si>
+    <t>38.3|24.5</t>
+  </si>
+  <si>
+    <t>153.4|23.9</t>
+  </si>
+  <si>
+    <t>199.3|24.6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>64.73,20.11,13.3,67.1,19.9,15.7</t>
+  </si>
+  <si>
+    <t>62.93,21.25,13.9,70.1,21.1,16.5</t>
+  </si>
+  <si>
+    <t>55.14,23.89,14.3,72.4,23.8,17.8</t>
+  </si>
+  <si>
+    <t>69.01,20.47,14.6,73.2,20.4,16.6</t>
+  </si>
+  <si>
+    <t>64.62,21.89,14.9,74.9,21.8,17.3</t>
+  </si>
+  <si>
+    <t>64.22,21.62,14.6,73.2,21.5,17</t>
+  </si>
+  <si>
+    <t>82.16|True|0</t>
+  </si>
+  <si>
+    <t>75.18|True|0</t>
+  </si>
+  <si>
+    <t>51.84|True|0</t>
+  </si>
+  <si>
+    <t>72.86|True|0</t>
+  </si>
+  <si>
+    <t>70.32|True|0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19.4</t>
   </si>
   <si>
     <t>20.8</t>
   </si>
   <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>22.7</t>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>-999.8</t>
@@ -427,178 +454,187 @@
     <t>23.7</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>Frequency X: 38.6 Hz Y: 56 Hz Z: 37.8 Hz , Velocity rms X: 2.25 mm/s Y: 2.42 mm/s Z: 4.23 mm/s , Crest Factor  X: 3.47 Y: 2.35 Z: 2.89 , Duty Cycle:100 % , Temperature 75.4° F</t>
-  </si>
-  <si>
-    <t>Frequency X: 34 Hz Y: 43.6 Hz Z: 42.4 Hz , Velocity rms X: 7.64 mm/s Y: 13.61 mm/s Z: 10.61 mm/s , Crest Factor  X: 2.18 Y: 2.51 Z: 1.84 , Duty Cycle:100 % , Temperature 28.5° C</t>
-  </si>
-  <si>
-    <t>Frequency X: 32.8 Hz Y: 43.2 Hz Z: 42.6 Hz , Velocity rms X: 5.32 mm/s Y: 15.02 mm/s Z: 11.94 mm/s , Crest Factor  X: 2.37 Y: 2.62 Z: 2.05 , Duty Cycle:100 % , Temperature 29.3° C</t>
-  </si>
-  <si>
-    <t>Frequency X: 43.2 Hz Y: 29.4 Hz Z: 42.8 Hz , Velocity rms X: 1.14 mm/s Y: 1.57 mm/s Z: 1.77 mm/s , Crest Factor  X: 3.19 Y: 2.82 Z: 3.06 , Duty Cycle:100 % , Temperature 30.9° C</t>
-  </si>
-  <si>
-    <t>Frequency X: 50.8 Hz Y: 50.8 Hz Z: 50.6 Hz , Velocity rms X: 6.03 mm/s Y: 19.69 mm/s Z: 12.03 mm/s , Crest Factor  X: 2.9 Y: 2.4 Z: 2.23 , Duty Cycle:100 % , Temperature 37.3° C</t>
-  </si>
-  <si>
-    <t>PM1: 9 μg/m^3 , PM2.5: 10 μg/m^3 , PM10: 12 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 13 μg/m^3 , PM2.5: 18 μg/m^3 , PM10: 18 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 11 μg/m^3 , PM2.5: 17 μg/m^3 , PM10: 20 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 14 μg/m^3 , PM2.5: 20 μg/m^3 , PM10: 26 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 15 μg/m^3 , PM2.5: 19 μg/m^3 , PM10: 19 μg/m^3</t>
-  </si>
-  <si>
-    <t>PM1: 14 μg/m^3 , PM2.5: 20 μg/m^3 , PM10: 20 μg/m^3</t>
-  </si>
-  <si>
-    <t>4.1 mps, Temperature: 73.4 F</t>
-  </si>
-  <si>
-    <t>6.4 mps, Temperature: 20.9 C</t>
-  </si>
-  <si>
-    <t>2 PPM, 0 TWA-PPM, 22.8° C</t>
-  </si>
-  <si>
-    <t>0 PPM, 0 TWA-PPM, 22.9° C</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 668 ppm; CO2 TWA: 698 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 674 ppm; CO2 TWA: 704 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 654 ppm; CO2 TWA: 708 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 620 ppm; CO2 TWA: 715 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 612 ppm; CO2 TWA: 720 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 634 ppm; CO2 TWA: 727 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 998 ppm; CO2 TWA: 891 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 0 ppm; CO2 TWA: 1 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 541 ppm; CO2 TWA: 542 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 196 ppm; CO2 TWA: 204 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 473 ppm; CO2 TWA: 470 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 704 ppm; CO2 TWA: 770 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 379 ppm; CO2 TWA: 367 ppm</t>
-  </si>
-  <si>
-    <t>CO2 Instantaneous: 449 ppm; CO2 TWA: 452 ppm</t>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>Frequency X: 39.8 Hz Y: 36.8 Hz Z: 39.4 Hz , Velocity rms X: 2.64 mm/s Y: 2.13 mm/s Z: 3.91 mm/s , Crest Factor  X: 2.53 Y: 2.92 Z: 2.78 , Duty Cycle:100 % , Temperature 79.7° F</t>
+  </si>
+  <si>
+    <t>Frequency X: 37.2 Hz Y: 42.4 Hz Z: 41.6 Hz , Velocity rms X: 10.3 mm/s Y: 16.54 mm/s Z: 12.53 mm/s , Crest Factor  X: 2.28 Y: 2.72 Z: 1.95 , Duty Cycle:100 % , Temperature 22.5° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 42.4 Hz Y: 62.4 Hz Z: 41.8 Hz , Velocity rms X: 1.72 mm/s Y: 1.21 mm/s Z: 2.44 mm/s , Crest Factor  X: 2.92 Y: 2.77 Z: 2.98 , Duty Cycle:100 % , Temperature 31.8° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 31.8 Hz Y: 63 Hz Z: 40.2 Hz , Velocity rms X: 1.45 mm/s Y: 0.98 mm/s Z: 1.78 mm/s , Crest Factor  X: 2.44 Y: 3.08 Z: 2.4 , Duty Cycle:100 % , Temperature 31.6° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 50.4 Hz Y: 50.6 Hz Z: 51 Hz , Velocity rms X: 6.51 mm/s Y: 19.63 mm/s Z: 11.58 mm/s , Crest Factor  X: 2.58 Y: 2.34 Z: 2.2 , Duty Cycle:100 % , Temperature 37.8° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 50.6 Hz Y: 50.4 Hz Z: 51 Hz , Velocity rms X: 6.37 mm/s Y: 18.39 mm/s Z: 10.21 mm/s , Crest Factor  X: 2.26 Y: 2.21 Z: 2.36 , Duty Cycle:100 % , Temperature 37.9° C</t>
+  </si>
+  <si>
+    <t>Frequency X: 50.4 Hz Y: 50.2 Hz Z: 50.4 Hz , Velocity rms X: 7.31 mm/s Y: 20.29 mm/s Z: 11.47 mm/s , Crest Factor  X: 2.26 Y: 2.21 Z: 2.67 , Duty Cycle:100 % , Temperature 37.8° C</t>
+  </si>
+  <si>
+    <t>PM1: 8 μg/m^3 , PM2.5: 11 μg/m^3 , PM10: 12 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 12 μg/m^3 , PM2.5: 19 μg/m^3 , PM10: 21 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 16 μg/m^3 , PM2.5: 25 μg/m^3 , PM10: 29 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 10 μg/m^3 , PM2.5: 18 μg/m^3 , PM10: 22 μg/m^3</t>
+  </si>
+  <si>
+    <t>PM1: 14 μg/m^3 , PM2.5: 19 μg/m^3 , PM10: 20 μg/m^3</t>
+  </si>
+  <si>
+    <t>4 mps, Temperature: 73.94 F</t>
+  </si>
+  <si>
+    <t>2.5 mps, Temperature: 20.4 C</t>
+  </si>
+  <si>
+    <t>0 PPM, 0 TWA-PPM, 22.8° C</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 646 ppm; CO2 TWA: 641 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 643 ppm; CO2 TWA: 646 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 651 ppm; CO2 TWA: 651 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 657 ppm; CO2 TWA: 655 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 671 ppm; CO2 TWA: 660 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 675 ppm; CO2 TWA: 664 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 913 ppm; CO2 TWA: 893 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 0 ppm; CO2 TWA: 0 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 567 ppm; CO2 TWA: 546 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 544 ppm; CO2 TWA: 544 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 191 ppm; CO2 TWA: 193 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 179 ppm; CO2 TWA: 196 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 468 ppm; CO2 TWA: 474 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 718 ppm; CO2 TWA: 712 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 410 ppm; CO2 TWA: 366 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 373 ppm; CO2 TWA: 361 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 478 ppm; CO2 TWA: 453 ppm</t>
+  </si>
+  <si>
+    <t>CO2 Instantaneous: 449 ppm; CO2 TWA: 451 ppm</t>
   </si>
   <si>
     <t>0 Pascal, Temperature: 72.86 F</t>
   </si>
   <si>
-    <t>60 Pascal, Temperature: 75.38 F</t>
-  </si>
-  <si>
-    <t>55.2 Pascal, Temperature: 73.4 F</t>
-  </si>
-  <si>
-    <t>348.2 Pascal, Temperature: 74.3 F</t>
-  </si>
-  <si>
-    <t>292.7 Pascal, Temperature: 24 C</t>
-  </si>
-  <si>
-    <t>309.2 Pascal, Temperature: 23.8 C</t>
-  </si>
-  <si>
-    <t>51.7 Pascal, Temperature: 24.3 C</t>
-  </si>
-  <si>
-    <t>36.9 Pascal, Temperature: 24 C</t>
-  </si>
-  <si>
-    <t>152.5 Pascal, Temperature: 23.4 C</t>
-  </si>
-  <si>
-    <t>183.1 Pascal, Temperature: 23.9 C</t>
-  </si>
-  <si>
-    <t>15.3° C</t>
-  </si>
-  <si>
-    <t>19.1° C</t>
-  </si>
-  <si>
-    <t>64.3% @ 20.2° C D: 13.3° C G/KG: 9.6 Heat Index: 20 °C Wet Bulb: 15.8° C</t>
-  </si>
-  <si>
-    <t>61.82% @ 21.2° C</t>
-  </si>
-  <si>
-    <t>55.41% @ 23.1° C</t>
-  </si>
-  <si>
-    <t>69.38% @ 20.4° C</t>
-  </si>
-  <si>
-    <t>65.48% @ 21.3° C</t>
-  </si>
-  <si>
-    <t>61.85% @ 21.6° C</t>
-  </si>
-  <si>
-    <t>82.32 lux</t>
-  </si>
-  <si>
-    <t>74.32 lux</t>
-  </si>
-  <si>
-    <t>51.9 lux</t>
-  </si>
-  <si>
-    <t>72.74 lux</t>
-  </si>
-  <si>
-    <t>70.4 lux</t>
-  </si>
-  <si>
-    <t>21.8° C</t>
-  </si>
-  <si>
-    <t>18.9° C</t>
+    <t>66.6 Pascal, Temperature: 76.28 F</t>
+  </si>
+  <si>
+    <t>57 Pascal, Temperature: 73.94 F</t>
+  </si>
+  <si>
+    <t>349.4 Pascal, Temperature: 74.84 F</t>
+  </si>
+  <si>
+    <t>290 Pascal, Temperature: 24.6 C</t>
+  </si>
+  <si>
+    <t>302.1 Pascal, Temperature: 24.3 C</t>
+  </si>
+  <si>
+    <t>38.3 Pascal, Temperature: 24.5 C</t>
+  </si>
+  <si>
+    <t>153.4 Pascal, Temperature: 23.9 C</t>
+  </si>
+  <si>
+    <t>199.3 Pascal, Temperature: 24.6 C</t>
+  </si>
+  <si>
+    <t>14° C</t>
+  </si>
+  <si>
+    <t>12.2° C</t>
+  </si>
+  <si>
+    <t>64.73% @ 20.1° C D: 13.3° C G/KG: 9.6 Heat Index: 19.9 °C Wet Bulb: 15.7° C</t>
+  </si>
+  <si>
+    <t>62.93% @ 21.3° C</t>
+  </si>
+  <si>
+    <t>55.14% @ 23.9° C</t>
+  </si>
+  <si>
+    <t>69.01% @ 20.5° C</t>
+  </si>
+  <si>
+    <t>64.62% @ 21.9° C</t>
+  </si>
+  <si>
+    <t>64.22% @ 21.6° C</t>
+  </si>
+  <si>
+    <t>82.16 lux</t>
+  </si>
+  <si>
+    <t>75.18 lux</t>
+  </si>
+  <si>
+    <t>51.84 lux</t>
+  </si>
+  <si>
+    <t>72.86 lux</t>
+  </si>
+  <si>
+    <t>70.32 lux</t>
+  </si>
+  <si>
+    <t>22° C</t>
+  </si>
+  <si>
+    <t>19.4° C</t>
   </si>
   <si>
     <t>20.8° C</t>
   </si>
   <si>
-    <t>18.8° C</t>
-  </si>
-  <si>
-    <t>22.7° C</t>
+    <t>18.1° C</t>
+  </si>
+  <si>
+    <t>23° C</t>
   </si>
   <si>
     <t>Hardware Failure (Short)</t>
@@ -607,268 +643,286 @@
     <t>23.7° C</t>
   </si>
   <si>
-    <t>22.1° C</t>
-  </si>
-  <si>
-    <t>2316</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>2592</t>
-  </si>
-  <si>
-    <t>3048</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>21.4° C</t>
+  </si>
+  <si>
+    <t>2388</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>2544</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>3036</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>1.9</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>379</t>
+    <t>646</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>478</t>
   </si>
   <si>
     <t>449</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>55.2</t>
-  </si>
-  <si>
-    <t>348.2</t>
-  </si>
-  <si>
-    <t>292.7</t>
-  </si>
-  <si>
-    <t>309.2</t>
-  </si>
-  <si>
-    <t>51.7</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>152.5</t>
-  </si>
-  <si>
-    <t>183.1</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>61.82</t>
-  </si>
-  <si>
-    <t>55.41</t>
-  </si>
-  <si>
-    <t>69.38</t>
-  </si>
-  <si>
-    <t>65.48</t>
-  </si>
-  <si>
-    <t>61.85</t>
-  </si>
-  <si>
-    <t>82.32</t>
-  </si>
-  <si>
-    <t>74.32</t>
-  </si>
-  <si>
-    <t>51.9</t>
-  </si>
-  <si>
-    <t>72.74</t>
-  </si>
-  <si>
-    <t>70.4</t>
-  </si>
-  <si>
-    <t>0|38.6|56|37.8|2.25|2.42|4.23|0|0|0|0|0|0|0|0|0|3.47|2.35|2.89|1|24.1</t>
-  </si>
-  <si>
-    <t>0|34|43.6|42.4|7.64|13.61|10.61|0|0|0|0|0|0|0|0|0|2.18|2.51|1.84|1|28.5</t>
-  </si>
-  <si>
-    <t>0|32.8|43.2|42.6|5.32|15.02|11.94|0|0|0|0|0|0|0|0|0|2.37|2.62|2.05|1|29.3</t>
-  </si>
-  <si>
-    <t>0|43.2|29.4|42.8|1.14|1.57|1.77|0|0|0|0|0|0|0|0|0|3.19|2.82|3.06|1|30.9</t>
-  </si>
-  <si>
-    <t>0|50.8|50.8|50.6|6.03|19.69|12.03|0|0|0|0|0|0|0|0|0|2.9|2.4|2.23|1|37.3</t>
-  </si>
-  <si>
-    <t>9|10|12</t>
-  </si>
-  <si>
-    <t>13|18|18</t>
-  </si>
-  <si>
-    <t>11|17|20</t>
-  </si>
-  <si>
-    <t>14|20|26</t>
-  </si>
-  <si>
-    <t>15|19|19</t>
-  </si>
-  <si>
-    <t>14|20|20</t>
-  </si>
-  <si>
-    <t>4.1|23</t>
-  </si>
-  <si>
-    <t>6.4|20.9</t>
-  </si>
-  <si>
-    <t>2|0|22.8</t>
-  </si>
-  <si>
-    <t>0|0|22.9</t>
-  </si>
-  <si>
-    <t>668|698</t>
-  </si>
-  <si>
-    <t>674|704</t>
-  </si>
-  <si>
-    <t>654|708</t>
-  </si>
-  <si>
-    <t>620|715</t>
-  </si>
-  <si>
-    <t>612|720</t>
-  </si>
-  <si>
-    <t>634|727</t>
-  </si>
-  <si>
-    <t>998|891</t>
-  </si>
-  <si>
-    <t>0|1</t>
-  </si>
-  <si>
-    <t>541|542</t>
-  </si>
-  <si>
-    <t>196|204</t>
-  </si>
-  <si>
-    <t>473|470</t>
-  </si>
-  <si>
-    <t>704|770</t>
-  </si>
-  <si>
-    <t>379|367</t>
-  </si>
-  <si>
-    <t>449|452</t>
-  </si>
-  <si>
-    <t>64.3|20.21|13.3|67.1|20|15.8</t>
-  </si>
-  <si>
-    <t>61.82|21.19|13.6|68.6|21|16.3</t>
-  </si>
-  <si>
-    <t>55.41|23.1|13.7|69.3|22.9|17.2</t>
-  </si>
-  <si>
-    <t>69.38|20.38|14.6|73.1|20.3|16.6</t>
-  </si>
-  <si>
-    <t>65.48|21.29|14.6|73.1|21.2|16.9</t>
-  </si>
-  <si>
-    <t>61.85|21.6|14|70.4|21.4|16.7</t>
-  </si>
-  <si>
-    <t>82.32|True</t>
-  </si>
-  <si>
-    <t>74.32|True</t>
-  </si>
-  <si>
-    <t>51.9|True</t>
-  </si>
-  <si>
-    <t>72.74|True</t>
-  </si>
-  <si>
-    <t>70.4|True</t>
+    <t>66.6</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>349.4</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>302.1</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>153.4</t>
+  </si>
+  <si>
+    <t>199.3</t>
+  </si>
+  <si>
+    <t>64.73</t>
+  </si>
+  <si>
+    <t>62.93</t>
+  </si>
+  <si>
+    <t>55.14</t>
+  </si>
+  <si>
+    <t>69.01</t>
+  </si>
+  <si>
+    <t>64.62</t>
+  </si>
+  <si>
+    <t>64.22</t>
+  </si>
+  <si>
+    <t>82.16</t>
+  </si>
+  <si>
+    <t>75.18</t>
+  </si>
+  <si>
+    <t>51.84</t>
+  </si>
+  <si>
+    <t>72.86</t>
+  </si>
+  <si>
+    <t>70.32</t>
+  </si>
+  <si>
+    <t>0|39.8|36.8|39.4|2.64|2.13|3.91|0|0|0|0|0|0|0|0|0|2.53|2.92|2.78|1|26.5</t>
+  </si>
+  <si>
+    <t>0|37.2|42.4|41.6|10.3|16.54|12.53|0|0|0|0|0|0|0|0|0|2.28|2.72|1.95|1|22.5</t>
+  </si>
+  <si>
+    <t>0|42.4|62.4|41.8|1.72|1.21|2.44|0|0|0|0|0|0|0|0|0|2.92|2.77|2.98|1|31.8</t>
+  </si>
+  <si>
+    <t>0|31.8|63|40.2|1.45|0.98|1.78|0|0|0|0|0|0|0|0|0|2.44|3.08|2.4|1|31.6</t>
+  </si>
+  <si>
+    <t>0|50.4|50.6|51|6.51|19.63|11.58|0|0|0|0|0|0|0|0|0|2.58|2.34|2.2|1|37.8</t>
+  </si>
+  <si>
+    <t>0|50.6|50.4|51|6.37|18.39|10.21|0|0|0|0|0|0|0|0|0|2.26|2.21|2.36|1|37.9</t>
+  </si>
+  <si>
+    <t>0|50.4|50.2|50.4|7.31|20.29|11.47|0|0|0|0|0|0|0|0|0|2.26|2.21|2.67|1|37.8</t>
+  </si>
+  <si>
+    <t>8|11|12</t>
+  </si>
+  <si>
+    <t>12|19|21</t>
+  </si>
+  <si>
+    <t>16|25|29</t>
+  </si>
+  <si>
+    <t>10|18|22</t>
+  </si>
+  <si>
+    <t>14|19|20</t>
+  </si>
+  <si>
+    <t>4|23.3</t>
+  </si>
+  <si>
+    <t>2.5|20.4</t>
+  </si>
+  <si>
+    <t>0|0|22.8</t>
+  </si>
+  <si>
+    <t>646|641</t>
+  </si>
+  <si>
+    <t>643|646</t>
+  </si>
+  <si>
+    <t>651|651</t>
+  </si>
+  <si>
+    <t>657|655</t>
+  </si>
+  <si>
+    <t>671|660</t>
+  </si>
+  <si>
+    <t>675|664</t>
+  </si>
+  <si>
+    <t>913|893</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>567|546</t>
+  </si>
+  <si>
+    <t>544|544</t>
+  </si>
+  <si>
+    <t>191|193</t>
+  </si>
+  <si>
+    <t>179|196</t>
+  </si>
+  <si>
+    <t>468|474</t>
+  </si>
+  <si>
+    <t>718|712</t>
+  </si>
+  <si>
+    <t>410|366</t>
+  </si>
+  <si>
+    <t>373|361</t>
+  </si>
+  <si>
+    <t>478|453</t>
+  </si>
+  <si>
+    <t>449|451</t>
+  </si>
+  <si>
+    <t>64.73|20.11|13.3|67.1|19.9|15.7</t>
+  </si>
+  <si>
+    <t>62.93|21.25|13.9|70.1|21.1|16.5</t>
+  </si>
+  <si>
+    <t>55.14|23.89|14.3|72.4|23.8|17.8</t>
+  </si>
+  <si>
+    <t>69.01|20.47|14.6|73.2|20.4|16.6</t>
+  </si>
+  <si>
+    <t>64.62|21.89|14.9|74.9|21.8|17.3</t>
+  </si>
+  <si>
+    <t>64.22|21.62|14.6|73.2|21.5|17</t>
+  </si>
+  <si>
+    <t>82.16|True</t>
+  </si>
+  <si>
+    <t>75.18|True</t>
+  </si>
+  <si>
+    <t>51.84|True</t>
+  </si>
+  <si>
+    <t>72.86|True</t>
+  </si>
+  <si>
+    <t>70.32|True</t>
   </si>
   <si>
     <t>State|Frequency|Frequency|Frequency|Speed|Speed|Speed|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Geforce|Percentage|Percentage|Percentage|Percentage|TemperatureData</t>
@@ -898,76 +952,76 @@
     <t>LuxData|LightDetect</t>
   </si>
   <si>
-    <t>0|38.6|56|37.8|2.25|2.42|4.23||||||||||3.47|2.35|2.89|100|75.38</t>
-  </si>
-  <si>
-    <t>0|34|43.6|42.4|7.64|13.61|10.61||||||||||2.18|2.51|1.84|100|28.5</t>
-  </si>
-  <si>
-    <t>0|32.8|43.2|42.6|5.32|15.02|11.94||||||||||2.37|2.62|2.05|100|29.3</t>
-  </si>
-  <si>
-    <t>0|43.2|29.4|42.8|1.14|1.57|1.77||||||||||3.19|2.82|3.06|100|30.9</t>
-  </si>
-  <si>
-    <t>0|50.8|50.8|50.6|6.03|19.69|12.03||||||||||2.9|2.4|2.23|100|37.3</t>
-  </si>
-  <si>
-    <t>10|9|10|12</t>
-  </si>
-  <si>
-    <t>18|13|18|18</t>
-  </si>
-  <si>
-    <t>17|11|17|20</t>
-  </si>
-  <si>
-    <t>20|14|20|26</t>
-  </si>
-  <si>
-    <t>19|15|19|19</t>
-  </si>
-  <si>
-    <t>20|14|20|20</t>
-  </si>
-  <si>
-    <t>4.1|73.4</t>
-  </si>
-  <si>
-    <t>1.9|0|22.8</t>
-  </si>
-  <si>
-    <t>64.3|20.21|13.3|9.58571428571429|20|15.8</t>
-  </si>
-  <si>
-    <t>61.82|21.19|13.6|9.8|21|16.3</t>
-  </si>
-  <si>
-    <t>55.41|23.1|13.7|9.9|22.9|17.2</t>
-  </si>
-  <si>
-    <t>69.38|20.38|14.6|10.4428571428571|20.3|16.6</t>
-  </si>
-  <si>
-    <t>65.48|21.29|14.6|10.4428571428571|21.2|16.9</t>
-  </si>
-  <si>
-    <t>61.85|21.6|14|10.0571428571429|21.4|16.7</t>
-  </si>
-  <si>
-    <t>82.32|1</t>
-  </si>
-  <si>
-    <t>74.32|1</t>
-  </si>
-  <si>
-    <t>51.9|1</t>
-  </si>
-  <si>
-    <t>72.74|1</t>
-  </si>
-  <si>
-    <t>70.4|1</t>
+    <t>0|39.8|36.8|39.4|2.64|2.13|3.91||||||||||2.53|2.92|2.78|100|79.7</t>
+  </si>
+  <si>
+    <t>0|37.2|42.4|41.6|10.3|16.54|12.53||||||||||2.28|2.72|1.95|100|22.5</t>
+  </si>
+  <si>
+    <t>0|42.4|62.4|41.8|1.72|1.21|2.44||||||||||2.92|2.77|2.98|100|31.8</t>
+  </si>
+  <si>
+    <t>0|31.8|63|40.2|1.45|0.98|1.78||||||||||2.44|3.08|2.4|100|31.6</t>
+  </si>
+  <si>
+    <t>0|50.4|50.6|51|6.51|19.63|11.58||||||||||2.58|2.34|2.2|100|37.8</t>
+  </si>
+  <si>
+    <t>0|50.6|50.4|51|6.37|18.39|10.21||||||||||2.26|2.21|2.36|100|37.9</t>
+  </si>
+  <si>
+    <t>0|50.4|50.2|50.4|7.31|20.29|11.47||||||||||2.26|2.21|2.67|100|37.8</t>
+  </si>
+  <si>
+    <t>11|8|11|12</t>
+  </si>
+  <si>
+    <t>19|12|19|21</t>
+  </si>
+  <si>
+    <t>25|16|25|29</t>
+  </si>
+  <si>
+    <t>18|10|18|22</t>
+  </si>
+  <si>
+    <t>19|14|19|20</t>
+  </si>
+  <si>
+    <t>4|73.94</t>
+  </si>
+  <si>
+    <t>64.73|20.11|13.3|9.58571428571429|19.9|15.7</t>
+  </si>
+  <si>
+    <t>62.93|21.25|13.9|10.0142857142857|21.1|16.5</t>
+  </si>
+  <si>
+    <t>55.14|23.89|14.3|10.3428571428571|23.8|17.8</t>
+  </si>
+  <si>
+    <t>69.01|20.47|14.6|10.4571428571429|20.4|16.6</t>
+  </si>
+  <si>
+    <t>64.62|21.89|14.9|10.7|21.8|17.3</t>
+  </si>
+  <si>
+    <t>64.22|21.62|14.6|10.4571428571429|21.5|17</t>
+  </si>
+  <si>
+    <t>82.16|1</t>
+  </si>
+  <si>
+    <t>75.18|1</t>
+  </si>
+  <si>
+    <t>51.84|1</t>
+  </si>
+  <si>
+    <t>72.86|1</t>
+  </si>
+  <si>
+    <t>70.32|1</t>
   </si>
   <si>
     <t xml:space="preserve"> |Hz|Hz|Hz|mm/s|mm/s|mm/s| | | | | | | | | | | | |%|Fahrenheit</t>
@@ -1003,298 +1057,178 @@
     <t>Lux|Light</t>
   </si>
   <si>
-    <t>Advanced Vibration - 708014</t>
-  </si>
-  <si>
-    <t>Advanced Vibration - 708015</t>
-  </si>
-  <si>
-    <t>Advanced Vibration - 708017</t>
-  </si>
-  <si>
-    <t>Advanced Vibration - 708018</t>
-  </si>
-  <si>
-    <t>Air Quality - 707924</t>
-  </si>
-  <si>
-    <t>Air Quality - 707926</t>
-  </si>
-  <si>
-    <t>Air Quality - 707927</t>
-  </si>
-  <si>
-    <t>Air Quality - 707928</t>
-  </si>
-  <si>
-    <t>Air Quality - 707929</t>
-  </si>
-  <si>
-    <t>Air Quality - 707930</t>
-  </si>
-  <si>
-    <t>AirSpeed - 707941</t>
-  </si>
-  <si>
-    <t>AirSpeed - 707942</t>
-  </si>
-  <si>
-    <t>CO Meter - 529932</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 529925</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 529926</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 707915</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 707916</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 707917</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 707918</t>
-  </si>
-  <si>
-    <t>CO2 Meter - 707919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 Meter - 707920 </t>
-  </si>
-  <si>
-    <t>CO2 Meter - 707922</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 525821</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 525822</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 525826</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 525827</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 707961</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 707962</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 707964</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 707967</t>
-  </si>
-  <si>
-    <t>Differential Pressure - 707972</t>
-  </si>
-  <si>
-    <t>Duct Temperature - 707934</t>
-  </si>
-  <si>
-    <t>Duct Temperature - 707936</t>
-  </si>
-  <si>
-    <t>Humidity - 529918</t>
-  </si>
-  <si>
-    <t>Humidity - 707997</t>
-  </si>
-  <si>
-    <t>Humidity - 707998</t>
-  </si>
-  <si>
-    <t>Humidity - 708001</t>
-  </si>
-  <si>
-    <t>Humidity - 708002</t>
-  </si>
-  <si>
-    <t>Humidity - 708003</t>
-  </si>
-  <si>
-    <t>LightSensor - 707894</t>
-  </si>
-  <si>
-    <t>LightSensor - 707895</t>
-  </si>
-  <si>
-    <t>LightSensor - 707896</t>
-  </si>
-  <si>
-    <t>LightSensor - 707898</t>
-  </si>
-  <si>
-    <t>LightSensor - 707901</t>
-  </si>
-  <si>
-    <t>Temperature - 708005</t>
-  </si>
-  <si>
-    <t>Temperature - 708006</t>
-  </si>
-  <si>
-    <t>Temperature - 708008</t>
-  </si>
-  <si>
-    <t>Temperature - 708009</t>
-  </si>
-  <si>
-    <t>Temperature - 708010</t>
-  </si>
-  <si>
-    <t>Temperature - 708011</t>
-  </si>
-  <si>
-    <t>Temperature - 708012</t>
-  </si>
-  <si>
-    <t>Temperature - 708013</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:40:13</t>
-  </si>
-  <si>
-    <t>2023-01-06 13:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:00:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:00:03</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:58:55</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:26:14</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:41:46</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:44:14</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:44:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:30:06</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:24:59</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:25:04</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:50:01</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:40:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:30:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:20:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:10:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:00:01</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:08:54</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:11:21</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:32:45</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:14:34</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:17:35</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:09:18</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:31:59</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:23:43</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:31:02</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:44:58</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:56:17</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:16:23</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:52:17</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:42:12</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:38:31</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:09:53</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:23:24</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:00:06</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:05:26</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:18:03</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:26:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:04:33</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:09:19</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:35:11</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:36:09</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:42:17</t>
-  </si>
-  <si>
-    <t>2023-01-06 12:01:55</t>
+    <t>Advanced Vibration</t>
+  </si>
+  <si>
+    <t>Air Quality</t>
+  </si>
+  <si>
+    <t>AirSpeed</t>
+  </si>
+  <si>
+    <t>CO Meter</t>
+  </si>
+  <si>
+    <t>CO2 Meter</t>
+  </si>
+  <si>
+    <t>Differential Pressure</t>
+  </si>
+  <si>
+    <t>Duct Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>LightSensor</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:40:12</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:59:59</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-01-06 15:00:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:58:55</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:26:14</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:41:46</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:44:13</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:44:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:30:06</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:24:59</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:25:04</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:00:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:50:03</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:40:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:30:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:20:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:10:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:08:54</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:11:21</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:32:45</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:14:34</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:17:35</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:09:18</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:31:59</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:23:43</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:31:02</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:44:57</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:56:16</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:16:23</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:52:16</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:42:12</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:38:31</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:09:53</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:23:24</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:00:06</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:05:26</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:18:03</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:26:00</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:04:33</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:09:19</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:35:12</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:36:09</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:42:16</t>
+  </si>
+  <si>
+    <t>2023-01-06 14:01:55</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1722,13 +1656,13 @@
         <v>708014</v>
       </c>
       <c r="C2">
-        <v>1672994413000</v>
+        <v>1673001612000</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>3.3</v>
@@ -1737,13 +1671,13 @@
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -1752,22 +1686,22 @@
         <v>949492</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="N2" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O2" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="P2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="Q2" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="R2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1778,28 +1712,28 @@
         <v>708015</v>
       </c>
       <c r="C3">
-        <v>1672995600000</v>
+        <v>1672999204000</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1808,22 +1742,22 @@
         <v>949492</v>
       </c>
       <c r="M3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="N3" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="P3" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="Q3" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="R3" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1831,31 +1765,31 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>708015</v>
+        <v>708017</v>
       </c>
       <c r="C4">
-        <v>1672992000000</v>
+        <v>1673002799000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>3.34</v>
+        <v>3.24</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1864,22 +1798,22 @@
         <v>949492</v>
       </c>
       <c r="M4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="N4" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O4" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="P4" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="Q4" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="R4" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1890,28 +1824,28 @@
         <v>708017</v>
       </c>
       <c r="C5">
-        <v>1672992002000</v>
+        <v>1672999201000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1920,22 +1854,22 @@
         <v>949492</v>
       </c>
       <c r="M5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="N5" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O5" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="P5" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="Q5" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="R5" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1946,7 +1880,7 @@
         <v>708018</v>
       </c>
       <c r="C6">
-        <v>1672992003000</v>
+        <v>1673002800000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1955,19 +1889,19 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1976,22 +1910,22 @@
         <v>949492</v>
       </c>
       <c r="M6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="N6" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P6" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="Q6" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="R6" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1999,55 +1933,55 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>707924</v>
+        <v>708018</v>
       </c>
       <c r="C7">
-        <v>1672995535000</v>
+        <v>1673002799000</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>2.98</v>
+        <v>2.58</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>948914</v>
+        <v>949492</v>
       </c>
       <c r="M7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="N7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="O7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="P7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="Q7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="R7" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2055,31 +1989,31 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>707926</v>
+        <v>708018</v>
       </c>
       <c r="C8">
-        <v>1672993574000</v>
+        <v>1672999201000</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>2.97</v>
+        <v>2.59</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2088,22 +2022,22 @@
         <v>949492</v>
       </c>
       <c r="M8" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N8" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="O8" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="Q8" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="R8" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2111,31 +2045,31 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>707927</v>
+        <v>707924</v>
       </c>
       <c r="C9">
-        <v>1672994506000</v>
+        <v>1673002735000</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F9">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -2144,22 +2078,22 @@
         <v>948914</v>
       </c>
       <c r="M9" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N9" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O9" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="P9" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="Q9" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="R9" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2167,31 +2101,31 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>707928</v>
+        <v>707926</v>
       </c>
       <c r="C10">
-        <v>1672994654000</v>
+        <v>1673000774000</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2200,22 +2134,22 @@
         <v>949492</v>
       </c>
       <c r="M10" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="N10" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O10" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="P10" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="Q10" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="R10" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2223,31 +2157,31 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>707929</v>
+        <v>707927</v>
       </c>
       <c r="C11">
-        <v>1672994642000</v>
+        <v>1673001706000</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F11">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2256,22 +2190,22 @@
         <v>948914</v>
       </c>
       <c r="M11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="N11" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O11" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="P11" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="Q11" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="R11" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2279,31 +2213,31 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>707930</v>
+        <v>707928</v>
       </c>
       <c r="C12">
-        <v>1672993806000</v>
+        <v>1673001853000</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J12" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2312,22 +2246,22 @@
         <v>949492</v>
       </c>
       <c r="M12" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N12" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O12" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="P12" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="Q12" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="R12" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2335,55 +2269,55 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>707941</v>
+        <v>707929</v>
       </c>
       <c r="C13">
-        <v>1672993499000</v>
+        <v>1673001842000</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>949492</v>
+        <v>948914</v>
       </c>
       <c r="M13" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="N13" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="O13" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="P13" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q13" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="R13" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2391,31 +2325,31 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>707942</v>
+        <v>707930</v>
       </c>
       <c r="C14">
-        <v>1672993504000</v>
+        <v>1673001006000</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2424,22 +2358,22 @@
         <v>949492</v>
       </c>
       <c r="M14" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="N14" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="O14" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="P14" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="Q14" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="R14" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2447,55 +2381,55 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>529932</v>
+        <v>707941</v>
       </c>
       <c r="C15">
-        <v>1672995600000</v>
+        <v>1673000699000</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="G15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>983756</v>
+        <v>949492</v>
       </c>
       <c r="M15" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="N15" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O15" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="P15" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="Q15" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="R15" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2503,55 +2437,55 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>529932</v>
+        <v>707942</v>
       </c>
       <c r="C16">
-        <v>1672992000000</v>
+        <v>1673000704000</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>983756</v>
+        <v>949492</v>
       </c>
       <c r="M16" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="N16" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O16" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="P16" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Q16" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="R16" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2559,10 +2493,10 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>529925</v>
+        <v>529932</v>
       </c>
       <c r="C17">
-        <v>1672995001000</v>
+        <v>1673002800000</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2571,19 +2505,19 @@
         <v>100</v>
       </c>
       <c r="F17">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2592,22 +2526,22 @@
         <v>983756</v>
       </c>
       <c r="M17" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="N17" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="O17" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="P17" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="Q17" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="R17" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2615,10 +2549,10 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>529925</v>
+        <v>529932</v>
       </c>
       <c r="C18">
-        <v>1672994402000</v>
+        <v>1672999200000</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2627,19 +2561,19 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2648,22 +2582,22 @@
         <v>983756</v>
       </c>
       <c r="M18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N18" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="O18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="P18" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="Q18" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="R18" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2674,7 +2608,7 @@
         <v>529925</v>
       </c>
       <c r="C19">
-        <v>1672993800000</v>
+        <v>1673002203000</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2689,13 +2623,13 @@
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2704,22 +2638,22 @@
         <v>983756</v>
       </c>
       <c r="M19" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N19" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O19" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P19" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q19" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="R19" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2730,7 +2664,7 @@
         <v>529925</v>
       </c>
       <c r="C20">
-        <v>1672993202000</v>
+        <v>1673001600000</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2745,13 +2679,13 @@
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2760,22 +2694,22 @@
         <v>983756</v>
       </c>
       <c r="M20" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="N20" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O20" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="P20" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q20" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="R20" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2786,7 +2720,7 @@
         <v>529925</v>
       </c>
       <c r="C21">
-        <v>1672992602000</v>
+        <v>1673001002000</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2801,13 +2735,13 @@
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2816,22 +2750,22 @@
         <v>983756</v>
       </c>
       <c r="M21" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="N21" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O21" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P21" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q21" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="R21" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2842,7 +2776,7 @@
         <v>529925</v>
       </c>
       <c r="C22">
-        <v>1672992001000</v>
+        <v>1673000400000</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2857,13 +2791,13 @@
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2872,22 +2806,22 @@
         <v>983756</v>
       </c>
       <c r="M22" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="N22" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O22" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q22" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="R22" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2895,10 +2829,10 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>529926</v>
+        <v>529925</v>
       </c>
       <c r="C23">
-        <v>1672992003000</v>
+        <v>1672999802000</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2907,19 +2841,19 @@
         <v>100</v>
       </c>
       <c r="F23">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2928,22 +2862,22 @@
         <v>983756</v>
       </c>
       <c r="M23" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="N23" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O23" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="P23" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q23" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="R23" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2951,55 +2885,55 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>707915</v>
+        <v>529925</v>
       </c>
       <c r="C24">
-        <v>1672992002000</v>
+        <v>1672999202000</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="G24">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>949492</v>
+        <v>983756</v>
       </c>
       <c r="M24" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N24" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O24" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P24" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q24" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="R24" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3007,55 +2941,55 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>707916</v>
+        <v>529926</v>
       </c>
       <c r="C25">
-        <v>1672992000000</v>
+        <v>1672999203000</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>2.59</v>
+        <v>2.96</v>
       </c>
       <c r="G25">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>949492</v>
+        <v>983756</v>
       </c>
       <c r="M25" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N25" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O25" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q25" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="R25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3063,31 +2997,31 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>707917</v>
+        <v>707915</v>
       </c>
       <c r="C26">
-        <v>1672992003000</v>
+        <v>1672999202000</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>2.56</v>
+        <v>2.79</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -3096,22 +3030,22 @@
         <v>949492</v>
       </c>
       <c r="M26" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O26" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="P26" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q26" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="R26" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3119,31 +3053,31 @@
         <v>43</v>
       </c>
       <c r="B27">
-        <v>707918</v>
+        <v>707916</v>
       </c>
       <c r="C27">
-        <v>1672992001000</v>
+        <v>1673002800000</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F27">
-        <v>2.76</v>
+        <v>2.59</v>
       </c>
       <c r="G27">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -3152,22 +3086,22 @@
         <v>949492</v>
       </c>
       <c r="M27" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O27" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P27" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q27" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="R27" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3175,55 +3109,55 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>707919</v>
+        <v>707916</v>
       </c>
       <c r="C28">
-        <v>1672992534000</v>
+        <v>1672999203000</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F28">
-        <v>2.96</v>
+        <v>2.59</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>983756</v>
+        <v>949492</v>
       </c>
       <c r="M28" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O28" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P28" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="R28" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3231,31 +3165,31 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>707920</v>
+        <v>707917</v>
       </c>
       <c r="C29">
-        <v>1672992000000</v>
+        <v>1673002799000</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F29">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -3264,22 +3198,22 @@
         <v>949492</v>
       </c>
       <c r="M29" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="P29" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q29" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R29" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3287,31 +3221,31 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>707922</v>
+        <v>707917</v>
       </c>
       <c r="C30">
-        <v>1672992002000</v>
+        <v>1672999202000</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F30">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="G30">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -3320,22 +3254,22 @@
         <v>949492</v>
       </c>
       <c r="M30" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O30" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P30" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R30" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3343,55 +3277,55 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>525821</v>
+        <v>707918</v>
       </c>
       <c r="C31">
-        <v>1672992681000</v>
+        <v>1672999200000</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F31">
-        <v>2.99</v>
+        <v>2.76</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J31" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>983756</v>
+        <v>949492</v>
       </c>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O31" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="P31" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q31" t="s">
         <v>351</v>
       </c>
       <c r="R31" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3399,55 +3333,55 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>525822</v>
+        <v>707919</v>
       </c>
       <c r="C32">
-        <v>1672993965000</v>
+        <v>1672999734000</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>949492</v>
+        <v>983756</v>
       </c>
       <c r="M32" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R32" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3455,31 +3389,31 @@
         <v>49</v>
       </c>
       <c r="B33">
-        <v>525826</v>
+        <v>707920</v>
       </c>
       <c r="C33">
-        <v>1672992874000</v>
+        <v>1673002800000</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F33">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -3488,22 +3422,22 @@
         <v>949492</v>
       </c>
       <c r="M33" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="P33" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R33" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3511,31 +3445,31 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>525827</v>
+        <v>707920</v>
       </c>
       <c r="C34">
-        <v>1672993055000</v>
+        <v>1672999203000</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F34">
-        <v>3.52</v>
+        <v>2.84</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -3544,22 +3478,22 @@
         <v>949492</v>
       </c>
       <c r="M34" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O34" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="P34" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="R34" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3567,31 +3501,31 @@
         <v>51</v>
       </c>
       <c r="B35">
-        <v>707961</v>
+        <v>707922</v>
       </c>
       <c r="C35">
-        <v>1672992558000</v>
+        <v>1673002800000</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F35">
-        <v>3.32</v>
+        <v>2.75</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3600,22 +3534,22 @@
         <v>949492</v>
       </c>
       <c r="M35" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
         <v>290</v>
       </c>
-      <c r="O35" t="s">
-        <v>228</v>
-      </c>
       <c r="P35" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="R35" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3623,31 +3557,31 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>707962</v>
+        <v>707922</v>
       </c>
       <c r="C36">
-        <v>1672992003000</v>
+        <v>1672999203000</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F36">
-        <v>2.39</v>
+        <v>2.75</v>
       </c>
       <c r="G36">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -3656,22 +3590,22 @@
         <v>949492</v>
       </c>
       <c r="M36" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="P36" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q36" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="R36" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3679,55 +3613,55 @@
         <v>53</v>
       </c>
       <c r="B37">
-        <v>707964</v>
+        <v>525821</v>
       </c>
       <c r="C37">
-        <v>1672995600000</v>
+        <v>1672999881000</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F37">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J37" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>949492</v>
+        <v>983756</v>
       </c>
       <c r="M37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="O37" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P37" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="Q37" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="R37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3735,31 +3669,31 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>707964</v>
+        <v>525822</v>
       </c>
       <c r="C38">
-        <v>1672992003000</v>
+        <v>1673001165000</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F38">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -3768,22 +3702,22 @@
         <v>949492</v>
       </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N38" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="P38" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="Q38" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="R38" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3791,16 +3725,16 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>707967</v>
+        <v>525826</v>
       </c>
       <c r="C39">
-        <v>1672992000000</v>
+        <v>1673000074000</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F39">
         <v>3.01</v>
@@ -3809,13 +3743,13 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I39" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3824,22 +3758,22 @@
         <v>949492</v>
       </c>
       <c r="M39" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N39" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P39" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="Q39" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3847,55 +3781,55 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>707972</v>
+        <v>525827</v>
       </c>
       <c r="C40">
-        <v>1672992000000</v>
+        <v>1673000255000</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F40">
-        <v>2.98</v>
+        <v>3.52</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>948914</v>
+        <v>949492</v>
       </c>
       <c r="M40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="P40" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="Q40" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="R40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3903,31 +3837,31 @@
         <v>57</v>
       </c>
       <c r="B41">
-        <v>707934</v>
+        <v>707961</v>
       </c>
       <c r="C41">
-        <v>1672993919000</v>
+        <v>1672999758000</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F41">
-        <v>3.01</v>
+        <v>3.33</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3936,22 +3870,22 @@
         <v>949492</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N41" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="O41" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="P41" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q41" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="R41" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3959,31 +3893,31 @@
         <v>58</v>
       </c>
       <c r="B42">
-        <v>707936</v>
+        <v>707962</v>
       </c>
       <c r="C42">
-        <v>1672993423000</v>
+        <v>1672999202000</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2.39</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3992,22 +3926,22 @@
         <v>949492</v>
       </c>
       <c r="M42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="P42" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q42" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="R42" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4015,31 +3949,31 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>529918</v>
+        <v>707964</v>
       </c>
       <c r="C43">
-        <v>1672993862000</v>
+        <v>1672999200000</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F43">
-        <v>3.09</v>
+        <v>3.13</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J43" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -4048,22 +3982,22 @@
         <v>949492</v>
       </c>
       <c r="M43" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="O43" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="P43" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q43" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="R43" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4071,31 +4005,31 @@
         <v>60</v>
       </c>
       <c r="B44">
-        <v>707997</v>
+        <v>707967</v>
       </c>
       <c r="C44">
-        <v>1672994698000</v>
+        <v>1672999203000</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F44">
-        <v>2.55</v>
+        <v>3.02</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J44" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -4104,22 +4038,22 @@
         <v>949492</v>
       </c>
       <c r="M44" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="N44" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="P44" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q44" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="R44" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4127,55 +4061,55 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>707998</v>
+        <v>707972</v>
       </c>
       <c r="C45">
-        <v>1672995377000</v>
+        <v>1672999200000</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J45" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>949492</v>
+        <v>948914</v>
       </c>
       <c r="M45" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="N45" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="O45" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="P45" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q45" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="R45" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4183,31 +4117,31 @@
         <v>62</v>
       </c>
       <c r="B46">
-        <v>708001</v>
+        <v>707934</v>
       </c>
       <c r="C46">
-        <v>1672992983000</v>
+        <v>1673001119000</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F46">
-        <v>2.53</v>
+        <v>3.01</v>
       </c>
       <c r="G46">
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J46" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -4216,22 +4150,22 @@
         <v>949492</v>
       </c>
       <c r="M46" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="N46" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O46" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="P46" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="Q46" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="R46" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4239,31 +4173,31 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>708002</v>
+        <v>707936</v>
       </c>
       <c r="C47">
-        <v>1672995137000</v>
+        <v>1673000623000</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F47">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -4272,22 +4206,22 @@
         <v>949492</v>
       </c>
       <c r="M47" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="N47" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s">
-        <v>311</v>
+        <v>127</v>
       </c>
       <c r="P47" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="Q47" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="R47" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4295,31 +4229,31 @@
         <v>64</v>
       </c>
       <c r="B48">
-        <v>708003</v>
+        <v>529918</v>
       </c>
       <c r="C48">
-        <v>1672994532000</v>
+        <v>1673001062000</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F48">
-        <v>2.54</v>
+        <v>3.09</v>
       </c>
       <c r="G48">
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J48" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4328,22 +4262,22 @@
         <v>949492</v>
       </c>
       <c r="M48" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="N48" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="P48" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="Q48" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="R48" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4351,31 +4285,31 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>707894</v>
+        <v>707997</v>
       </c>
       <c r="C49">
-        <v>1672994311000</v>
+        <v>1673001897000</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J49" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4384,22 +4318,22 @@
         <v>949492</v>
       </c>
       <c r="M49" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="N49" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O49" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="P49" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q49" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="R49" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4407,31 +4341,31 @@
         <v>66</v>
       </c>
       <c r="B50">
-        <v>707895</v>
+        <v>707998</v>
       </c>
       <c r="C50">
-        <v>1672992593000</v>
+        <v>1673002576000</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F50">
-        <v>3.02</v>
+        <v>2.55</v>
       </c>
       <c r="G50">
         <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J50" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -4440,22 +4374,22 @@
         <v>949492</v>
       </c>
       <c r="M50" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O50" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="P50" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q50" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="R50" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4463,31 +4397,31 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>707896</v>
+        <v>708001</v>
       </c>
       <c r="C51">
-        <v>1672993404000</v>
+        <v>1673000183000</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F51">
-        <v>2.97</v>
+        <v>2.53</v>
       </c>
       <c r="G51">
         <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I51" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J51" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4496,22 +4430,22 @@
         <v>949492</v>
       </c>
       <c r="M51" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="N51" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O51" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q51" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="R51" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4519,31 +4453,31 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>707898</v>
+        <v>708002</v>
       </c>
       <c r="C52">
-        <v>1672992006000</v>
+        <v>1673002336000</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F52">
-        <v>2.98</v>
+        <v>2.58</v>
       </c>
       <c r="G52">
         <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J52" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -4552,22 +4486,22 @@
         <v>949492</v>
       </c>
       <c r="M52" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="N52" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O52" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P52" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q52" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="R52" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4575,31 +4509,31 @@
         <v>69</v>
       </c>
       <c r="B53">
-        <v>707901</v>
+        <v>708003</v>
       </c>
       <c r="C53">
-        <v>1672992326000</v>
+        <v>1673001732000</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F53">
-        <v>3.02</v>
+        <v>2.54</v>
       </c>
       <c r="G53">
         <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I53" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J53" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -4608,22 +4542,22 @@
         <v>949492</v>
       </c>
       <c r="M53" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="N53" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O53" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="P53" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q53" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="R53" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4631,31 +4565,31 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>708005</v>
+        <v>707894</v>
       </c>
       <c r="C54">
-        <v>1672993083000</v>
+        <v>1673001511000</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F54">
-        <v>2.45</v>
+        <v>3.01</v>
       </c>
       <c r="G54">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H54" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I54" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -4664,22 +4598,22 @@
         <v>949492</v>
       </c>
       <c r="M54" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="N54" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="P54" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="Q54" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="R54" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4687,31 +4621,31 @@
         <v>71</v>
       </c>
       <c r="B55">
-        <v>708006</v>
+        <v>707895</v>
       </c>
       <c r="C55">
-        <v>1672993560000</v>
+        <v>1672999793000</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F55">
-        <v>1.98</v>
+        <v>3.02</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -4720,22 +4654,22 @@
         <v>949492</v>
       </c>
       <c r="M55" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="N55" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O55" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="P55" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="Q55" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="R55" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4743,31 +4677,31 @@
         <v>72</v>
       </c>
       <c r="B56">
-        <v>708008</v>
+        <v>707896</v>
       </c>
       <c r="C56">
-        <v>1672992273000</v>
+        <v>1673000604000</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>2.25</v>
+        <v>2.97</v>
       </c>
       <c r="G56">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H56" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I56" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J56" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -4776,22 +4710,22 @@
         <v>949492</v>
       </c>
       <c r="M56" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="N56" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O56" t="s">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="P56" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="Q56" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="R56" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4799,55 +4733,55 @@
         <v>73</v>
       </c>
       <c r="B57">
-        <v>708009</v>
+        <v>707898</v>
       </c>
       <c r="C57">
-        <v>1672992559000</v>
+        <v>1672999206000</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F57">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="G57">
         <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J57" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>948914</v>
+        <v>949492</v>
       </c>
       <c r="M57" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="N57" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O57" t="s">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="P57" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="Q57" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="R57" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4855,31 +4789,31 @@
         <v>74</v>
       </c>
       <c r="B58">
-        <v>708010</v>
+        <v>707901</v>
       </c>
       <c r="C58">
-        <v>1672994111000</v>
+        <v>1672999526000</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F58">
-        <v>2.49</v>
+        <v>3.02</v>
       </c>
       <c r="G58">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J58" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4888,22 +4822,22 @@
         <v>949492</v>
       </c>
       <c r="M58" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="N58" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O58" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="Q58" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="R58" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4911,28 +4845,31 @@
         <v>75</v>
       </c>
       <c r="B59">
-        <v>708011</v>
+        <v>708005</v>
       </c>
       <c r="C59">
-        <v>1672994169000</v>
+        <v>1673000283000</v>
       </c>
       <c r="D59">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F59">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G59">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="J59" t="s">
+        <v>139</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4941,19 +4878,22 @@
         <v>949492</v>
       </c>
       <c r="M59" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N59" t="s">
-        <v>291</v>
+        <v>309</v>
+      </c>
+      <c r="O59" t="s">
+        <v>139</v>
       </c>
       <c r="P59" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Q59" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="R59" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4961,31 +4901,31 @@
         <v>76</v>
       </c>
       <c r="B60">
-        <v>708012</v>
+        <v>708006</v>
       </c>
       <c r="C60">
-        <v>1672994537000</v>
+        <v>1673000760000</v>
       </c>
       <c r="D60">
         <v>16</v>
       </c>
       <c r="E60">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F60">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -4994,22 +4934,22 @@
         <v>949492</v>
       </c>
       <c r="M60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N60" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="O60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P60" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Q60" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="R60" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5017,31 +4957,31 @@
         <v>77</v>
       </c>
       <c r="B61">
-        <v>708013</v>
+        <v>708008</v>
       </c>
       <c r="C61">
-        <v>1672992115000</v>
+        <v>1672999473000</v>
       </c>
       <c r="D61">
         <v>16</v>
       </c>
       <c r="E61">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F61">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="G61">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I61" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -5050,22 +4990,296 @@
         <v>949492</v>
       </c>
       <c r="M61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N61" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="O61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P61" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Q61" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="R61" t="s">
-        <v>426</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62">
+        <v>708009</v>
+      </c>
+      <c r="C62">
+        <v>1672999759000</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>66</v>
+      </c>
+      <c r="F62">
+        <v>2.51</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>948914</v>
+      </c>
+      <c r="M62" t="s">
+        <v>142</v>
+      </c>
+      <c r="N62" t="s">
+        <v>309</v>
+      </c>
+      <c r="O62" t="s">
+        <v>142</v>
+      </c>
+      <c r="P62" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>356</v>
+      </c>
+      <c r="R62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63">
+        <v>708010</v>
+      </c>
+      <c r="C63">
+        <v>1673001312000</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>84</v>
+      </c>
+      <c r="F63">
+        <v>2.49</v>
+      </c>
+      <c r="G63">
+        <v>97</v>
+      </c>
+      <c r="H63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" t="s">
+        <v>143</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>949492</v>
+      </c>
+      <c r="M63" t="s">
+        <v>143</v>
+      </c>
+      <c r="N63" t="s">
+        <v>309</v>
+      </c>
+      <c r="O63" t="s">
+        <v>143</v>
+      </c>
+      <c r="P63" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>356</v>
+      </c>
+      <c r="R63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64">
+        <v>708011</v>
+      </c>
+      <c r="C64">
+        <v>1673001369000</v>
+      </c>
+      <c r="D64">
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>2.42</v>
+      </c>
+      <c r="G64">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>144</v>
+      </c>
+      <c r="I64" t="s">
+        <v>207</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>949492</v>
+      </c>
+      <c r="M64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N64" t="s">
+        <v>309</v>
+      </c>
+      <c r="P64" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>356</v>
+      </c>
+      <c r="R64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>708012</v>
+      </c>
+      <c r="C65">
+        <v>1673001736000</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>79</v>
+      </c>
+      <c r="F65">
+        <v>2.08</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>949492</v>
+      </c>
+      <c r="M65" t="s">
+        <v>145</v>
+      </c>
+      <c r="N65" t="s">
+        <v>309</v>
+      </c>
+      <c r="O65" t="s">
+        <v>145</v>
+      </c>
+      <c r="P65" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>356</v>
+      </c>
+      <c r="R65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66">
+        <v>708013</v>
+      </c>
+      <c r="C66">
+        <v>1672999315000</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>92</v>
+      </c>
+      <c r="F66">
+        <v>2.46</v>
+      </c>
+      <c r="G66">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>949492</v>
+      </c>
+      <c r="M66" t="s">
+        <v>146</v>
+      </c>
+      <c r="N66" t="s">
+        <v>309</v>
+      </c>
+      <c r="O66" t="s">
+        <v>146</v>
+      </c>
+      <c r="P66" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>356</v>
+      </c>
+      <c r="R66" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
